--- a/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
+++ b/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -67,24 +67,60 @@
     <t>Estatus</t>
   </si>
   <si>
-    <t>ID Componente de Sistema</t>
+    <t>Dependencias</t>
+  </si>
+  <si>
+    <t>Componente de Sistema</t>
+  </si>
+  <si>
+    <t>ID Criterio de Aceptación</t>
+  </si>
+  <si>
+    <t>ID Defecto</t>
+  </si>
+  <si>
+    <t>Versión</t>
   </si>
   <si>
     <t>ID Modulo de Software</t>
   </si>
   <si>
-    <t>ID Criterio de Aceptación</t>
-  </si>
-  <si>
-    <t>ID Caso de Prueba</t>
-  </si>
-  <si>
-    <t>ID Defecto</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
+    <t>Como usuario registrado, me gustaría poder iniciar sesión en el sistema para poder ingresar al sistema.</t>
+  </si>
+  <si>
+    <t>Planeación</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CADHU/CADHU/urls.py</t>
+  </si>
+  <si>
+    <t>1.1-1.2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Autentificación</t>
+  </si>
+  <si>
+    <t>Prospectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos </t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
     <t>ID US</t>
   </si>
   <si>
@@ -127,25 +163,34 @@
     <t>Descripción del acceptance criteria</t>
   </si>
   <si>
-    <t>ID(s) Componentes del Sistema: Los ID(s) del componente del sistema o módulo al que esta relacionado este requerimiento funcional.</t>
+    <t>Dependencias del requerimiento funcional (ID de las dependencias)</t>
+  </si>
+  <si>
+    <t>1,3,10,45</t>
+  </si>
+  <si>
+    <t>ID(s) Componentes del Sistema: Los ID(s) del componente del sistema o item de trabajo donde se encuentra este requerimiento funcional.</t>
+  </si>
+  <si>
+    <t>Cadhu/propsectos/views.py</t>
+  </si>
+  <si>
+    <t>ID Criterio de Aceptación: El ID del criterio de aceptación asignado al requerimiento.</t>
   </si>
   <si>
     <t>1-N</t>
   </si>
   <si>
+    <t>Defectos: El ID de los defectos encontrados en este requerimiento.</t>
+  </si>
+  <si>
+    <t>Version del requerimiento</t>
+  </si>
+  <si>
+    <t>1.0   2.2 etc</t>
+  </si>
+  <si>
     <t>ID(s) Módulo de Software: El ID del módulo de software al que pertenece este requisito.</t>
-  </si>
-  <si>
-    <t>ID Criterio de Aceptación: El ID del criterio de aceptación asignado al requerimiento.</t>
-  </si>
-  <si>
-    <t>Test Case ID: This column should be populated with the test case ID linked to the functional requirement.</t>
-  </si>
-  <si>
-    <t>Defectos: El ID de los defectos encontrados en este requerimiento.</t>
-  </si>
-  <si>
-    <t>Comentarios Adicionales</t>
   </si>
 </sst>
 </file>
@@ -231,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -278,6 +323,11 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -300,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -328,31 +378,64 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -406,115 +489,115 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>28</v>
+      <c r="B2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="26.25">
-      <c r="B3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="32">
         <v>1.0</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>30</v>
+      <c r="F3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="32">
         <v>1.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>32</v>
+      <c r="F4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="32">
         <v>1.0</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>34</v>
+      <c r="F5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="26.25">
-      <c r="B6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="32">
         <v>1.0</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="27.0">
-      <c r="B7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" ht="26.25">
-      <c r="B8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>38</v>
+      <c r="F6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="27.0">
+      <c r="B8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="26.25">
-      <c r="B9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" ht="26.25">
-      <c r="B10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>38</v>
+      <c r="B9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1.0</v>
+      <c r="B11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="26.25">
+      <c r="B12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -539,10 +622,11 @@
     <col customWidth="1" min="2" max="2" width="5.14"/>
     <col customWidth="1" min="3" max="3" width="117.71"/>
     <col customWidth="1" min="6" max="6" width="23.71"/>
-    <col customWidth="1" min="7" max="7" width="20.43"/>
+    <col customWidth="1" min="7" max="7" width="29.57"/>
     <col customWidth="1" min="8" max="8" width="21.86"/>
     <col customWidth="1" min="9" max="9" width="16.29"/>
     <col customWidth="1" min="10" max="10" width="9.86"/>
+    <col customWidth="1" min="11" max="11" width="13.29"/>
     <col customWidth="1" min="13" max="13" width="24.0"/>
   </cols>
   <sheetData>
@@ -590,56 +674,109 @@
       <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
-      <c r="J6" s="4"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="B6" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="J7" s="4"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="J8" s="4"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="J9" s="4"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10">
       <c r="J10" s="4"/>
@@ -3472,18 +3609,6 @@
     </row>
     <row r="953">
       <c r="J953" s="4"/>
-    </row>
-    <row r="954">
-      <c r="J954" s="4"/>
-    </row>
-    <row r="955">
-      <c r="J955" s="4"/>
-    </row>
-    <row r="956">
-      <c r="J956" s="4"/>
-    </row>
-    <row r="957">
-      <c r="J957" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3586,17 +3711,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>26</v>
+      <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
+++ b/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
@@ -7,6 +7,8 @@
     <sheet state="visible" name="Matriz de Trazabilidad" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Diagrama de Trazabilidad" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="Acceptance Criteria" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Bitácora de Modificaciones" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Modificación de Requerimientos" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,11 +16,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+  <si>
+    <t>Version 2.0</t>
+  </si>
+  <si>
+    <t>Guía de llenado</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre Proyecto: </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>ID: Un ID único que se utiliza para identificar el objeto de trazabilidad en la matríz de trazabilidad de requerimientos.</t>
+  </si>
+  <si>
     <t>CASOS DE USO</t>
   </si>
   <si>
@@ -46,13 +63,70 @@
     <t>[Nombre de caso de uso]</t>
   </si>
   <si>
+    <t>ID US</t>
+  </si>
+  <si>
+    <t>Id del requerimiento</t>
+  </si>
+  <si>
+    <t>Requerimiento Funcional: La descripión del requerimiento funcional.</t>
+  </si>
+  <si>
+    <t>Requerimiento</t>
+  </si>
+  <si>
+    <t>Nombre del requerimiento</t>
+  </si>
+  <si>
+    <t>RF ID: El ID del requerimiento funcional.</t>
+  </si>
+  <si>
+    <t>ID AC</t>
+  </si>
+  <si>
+    <t>Id del Acceptance Criteria con formato (IDUS.IDAC)</t>
+  </si>
+  <si>
+    <t>Estatus: El estatus actual del requerimiento funcional.(Ver diagrama trazabilidad)</t>
+  </si>
+  <si>
+    <t>Descripción del acceptance criteria</t>
+  </si>
+  <si>
+    <t>Dependencias del requerimiento funcional (ID de las dependencias)</t>
+  </si>
+  <si>
     <t>(Si/No)</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre Proyecto: </t>
+    <t>1,3,10,45</t>
+  </si>
+  <si>
+    <t>ID(s) Componentes del Sistema: Los ID(s) del componente del sistema o item de trabajo donde se encuentra este requerimiento funcional.</t>
+  </si>
+  <si>
+    <t>Cadhu/propsectos/views.py</t>
+  </si>
+  <si>
+    <t>ID Criterio de Aceptación: El ID del criterio de aceptación asignado al requerimiento.</t>
+  </si>
+  <si>
+    <t>1-N</t>
+  </si>
+  <si>
+    <t>Defectos: El ID de los defectos encontrados en este requerimiento.</t>
+  </si>
+  <si>
+    <t>Version del requerimiento</t>
+  </si>
+  <si>
+    <t>1.0   2.2 etc</t>
+  </si>
+  <si>
+    <t>ID(s) Módulo de Software: El ID del módulo de software al que pertenece este requisito.</t>
   </si>
   <si>
     <t xml:space="preserve">Descripción del Proyecto: </t>
@@ -88,15 +162,48 @@
     <t>Descripción</t>
   </si>
   <si>
+    <t>Acceptance Criteria Definition</t>
+  </si>
+  <si>
     <t>Como usuario registrado, me gustaría poder iniciar sesión en el sistema para poder ingresar al sistema.</t>
   </si>
   <si>
+    <t>RF_ID</t>
+  </si>
+  <si>
     <t>Planeación</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>Requerimiento base</t>
+  </si>
+  <si>
+    <t>Fecha de Implmentación</t>
+  </si>
+  <si>
+    <t>Nombre del cambio</t>
+  </si>
+  <si>
+    <t>Descripción del cambio</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Requerimiento final</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Validado</t>
+  </si>
+  <si>
+    <t>Fecha de validación</t>
+  </si>
+  <si>
     <t>CADHU/CADHU/urls.py</t>
   </si>
   <si>
@@ -121,83 +228,59 @@
     <t>Clientes</t>
   </si>
   <si>
-    <t>ID US</t>
-  </si>
-  <si>
-    <t>Requerimiento</t>
-  </si>
-  <si>
-    <t>ID AC</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria Definition</t>
-  </si>
-  <si>
-    <t>Guía de llenado</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>ID: Un ID único que se utiliza para identificar el objeto de trazabilidad en la matríz de trazabilidad de requerimientos.</t>
-  </si>
-  <si>
-    <t>Id del requerimiento</t>
-  </si>
-  <si>
-    <t>Requerimiento Funcional: La descripión del requerimiento funcional.</t>
-  </si>
-  <si>
-    <t>Nombre del requerimiento</t>
-  </si>
-  <si>
-    <t>RF ID: El ID del requerimiento funcional.</t>
-  </si>
-  <si>
-    <t>Id del Acceptance Criteria con formato (IDUS.IDAC)</t>
-  </si>
-  <si>
-    <t>Estatus: El estatus actual del requerimiento funcional.(Ver diagrama trazabilidad)</t>
-  </si>
-  <si>
-    <t>Descripción del acceptance criteria</t>
-  </si>
-  <si>
-    <t>Dependencias del requerimiento funcional (ID de las dependencias)</t>
-  </si>
-  <si>
-    <t>1,3,10,45</t>
-  </si>
-  <si>
-    <t>ID(s) Componentes del Sistema: Los ID(s) del componente del sistema o item de trabajo donde se encuentra este requerimiento funcional.</t>
-  </si>
-  <si>
-    <t>Cadhu/propsectos/views.py</t>
-  </si>
-  <si>
-    <t>ID Criterio de Aceptación: El ID del criterio de aceptación asignado al requerimiento.</t>
-  </si>
-  <si>
-    <t>1-N</t>
-  </si>
-  <si>
-    <t>Defectos: El ID de los defectos encontrados en este requerimiento.</t>
-  </si>
-  <si>
-    <t>Version del requerimiento</t>
-  </si>
-  <si>
-    <t>1.0   2.2 etc</t>
-  </si>
-  <si>
-    <t>ID(s) Módulo de Software: El ID del módulo de software al que pertenece este requisito.</t>
+    <t>Tiempo estimado en área de desarrollo en HORAS</t>
+  </si>
+  <si>
+    <t>ID Cambio</t>
+  </si>
+  <si>
+    <t>Descripción del Cambio</t>
+  </si>
+  <si>
+    <t>Fecha de Solicitud</t>
+  </si>
+  <si>
+    <t>Tipo de Cambio</t>
+  </si>
+  <si>
+    <t>Item de Referencia para Estimación</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Integración</t>
+  </si>
+  <si>
+    <t>Ayuda</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>¿Alcance Inicial? (Si/No)</t>
+  </si>
+  <si>
+    <t>Aprobación</t>
+  </si>
+  <si>
+    <t>Justificación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -206,12 +289,15 @@
     <font/>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -220,6 +306,12 @@
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -269,14 +361,8 @@
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -346,28 +432,48 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -377,86 +483,113 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -476,8 +609,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,120 +632,125 @@
     <col customWidth="1" min="7" max="7" width="25.14"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="26.25">
-      <c r="B3" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
         <v>1.0</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="33" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="26.25">
-      <c r="B6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="27.0">
-      <c r="B8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" ht="26.25">
-      <c r="B9" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" ht="26.25">
-      <c r="B12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>54</v>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="4"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -614,6 +763,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -631,2984 +783,2984 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="4"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" ht="27.0">
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>23</v>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="24">
         <v>1.0</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="27">
         <v>1.0</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="E6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="25">
         <v>1.0</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25">
+      <c r="L6" s="32"/>
+      <c r="M6" s="33">
         <v>1.0</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>31</v>
+      <c r="N6" s="30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
-      <c r="J7" s="4"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="26">
+      <c r="J7" s="1"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="34">
         <v>2.0</v>
       </c>
-      <c r="N7" s="22" t="s">
-        <v>32</v>
+      <c r="N7" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
-      <c r="J8" s="4"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="27">
+      <c r="J8" s="1"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="35">
         <v>3.0</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>33</v>
+      <c r="N8" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
-      <c r="J9" s="4"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="28">
+      <c r="J9" s="1"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="36">
         <v>4.0</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>34</v>
+      <c r="N9" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10">
-      <c r="J10" s="4"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11">
-      <c r="J11" s="4"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12">
-      <c r="J12" s="4"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13">
-      <c r="J13" s="4"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14">
-      <c r="J14" s="4"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15">
-      <c r="J15" s="4"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16">
-      <c r="J16" s="4"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17">
-      <c r="J17" s="4"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18">
-      <c r="J18" s="4"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19">
-      <c r="J19" s="4"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20">
-      <c r="J20" s="4"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21">
-      <c r="J21" s="4"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22">
-      <c r="J22" s="4"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23">
-      <c r="J23" s="4"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24">
-      <c r="J24" s="4"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25">
-      <c r="J25" s="4"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26">
-      <c r="J26" s="4"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27">
-      <c r="J27" s="4"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28">
-      <c r="J28" s="4"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29">
-      <c r="J29" s="4"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30">
-      <c r="J30" s="4"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31">
-      <c r="J31" s="4"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32">
-      <c r="J32" s="4"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33">
-      <c r="J33" s="4"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34">
-      <c r="J34" s="4"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35">
-      <c r="J35" s="4"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36">
-      <c r="J36" s="4"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37">
-      <c r="J37" s="4"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38">
-      <c r="J38" s="4"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39">
-      <c r="J39" s="4"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40">
-      <c r="J40" s="4"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41">
-      <c r="J41" s="4"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42">
-      <c r="J42" s="4"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43">
-      <c r="J43" s="4"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44">
-      <c r="J44" s="4"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45">
-      <c r="J45" s="4"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46">
-      <c r="J46" s="4"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47">
-      <c r="J47" s="4"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48">
-      <c r="J48" s="4"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49">
-      <c r="J49" s="4"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50">
-      <c r="J50" s="4"/>
+      <c r="J50" s="1"/>
     </row>
     <row r="51">
-      <c r="J51" s="4"/>
+      <c r="J51" s="1"/>
     </row>
     <row r="52">
-      <c r="J52" s="4"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53">
-      <c r="J53" s="4"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54">
-      <c r="J54" s="4"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55">
-      <c r="J55" s="4"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56">
-      <c r="J56" s="4"/>
+      <c r="J56" s="1"/>
     </row>
     <row r="57">
-      <c r="J57" s="4"/>
+      <c r="J57" s="1"/>
     </row>
     <row r="58">
-      <c r="J58" s="4"/>
+      <c r="J58" s="1"/>
     </row>
     <row r="59">
-      <c r="J59" s="4"/>
+      <c r="J59" s="1"/>
     </row>
     <row r="60">
-      <c r="J60" s="4"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61">
-      <c r="J61" s="4"/>
+      <c r="J61" s="1"/>
     </row>
     <row r="62">
-      <c r="J62" s="4"/>
+      <c r="J62" s="1"/>
     </row>
     <row r="63">
-      <c r="J63" s="4"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64">
-      <c r="J64" s="4"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65">
-      <c r="J65" s="4"/>
+      <c r="J65" s="1"/>
     </row>
     <row r="66">
-      <c r="J66" s="4"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67">
-      <c r="J67" s="4"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68">
-      <c r="J68" s="4"/>
+      <c r="J68" s="1"/>
     </row>
     <row r="69">
-      <c r="J69" s="4"/>
+      <c r="J69" s="1"/>
     </row>
     <row r="70">
-      <c r="J70" s="4"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71">
-      <c r="J71" s="4"/>
+      <c r="J71" s="1"/>
     </row>
     <row r="72">
-      <c r="J72" s="4"/>
+      <c r="J72" s="1"/>
     </row>
     <row r="73">
-      <c r="J73" s="4"/>
+      <c r="J73" s="1"/>
     </row>
     <row r="74">
-      <c r="J74" s="4"/>
+      <c r="J74" s="1"/>
     </row>
     <row r="75">
-      <c r="J75" s="4"/>
+      <c r="J75" s="1"/>
     </row>
     <row r="76">
-      <c r="J76" s="4"/>
+      <c r="J76" s="1"/>
     </row>
     <row r="77">
-      <c r="J77" s="4"/>
+      <c r="J77" s="1"/>
     </row>
     <row r="78">
-      <c r="J78" s="4"/>
+      <c r="J78" s="1"/>
     </row>
     <row r="79">
-      <c r="J79" s="4"/>
+      <c r="J79" s="1"/>
     </row>
     <row r="80">
-      <c r="J80" s="4"/>
+      <c r="J80" s="1"/>
     </row>
     <row r="81">
-      <c r="J81" s="4"/>
+      <c r="J81" s="1"/>
     </row>
     <row r="82">
-      <c r="J82" s="4"/>
+      <c r="J82" s="1"/>
     </row>
     <row r="83">
-      <c r="J83" s="4"/>
+      <c r="J83" s="1"/>
     </row>
     <row r="84">
-      <c r="J84" s="4"/>
+      <c r="J84" s="1"/>
     </row>
     <row r="85">
-      <c r="J85" s="4"/>
+      <c r="J85" s="1"/>
     </row>
     <row r="86">
-      <c r="J86" s="4"/>
+      <c r="J86" s="1"/>
     </row>
     <row r="87">
-      <c r="J87" s="4"/>
+      <c r="J87" s="1"/>
     </row>
     <row r="88">
-      <c r="J88" s="4"/>
+      <c r="J88" s="1"/>
     </row>
     <row r="89">
-      <c r="J89" s="4"/>
+      <c r="J89" s="1"/>
     </row>
     <row r="90">
-      <c r="J90" s="4"/>
+      <c r="J90" s="1"/>
     </row>
     <row r="91">
-      <c r="J91" s="4"/>
+      <c r="J91" s="1"/>
     </row>
     <row r="92">
-      <c r="J92" s="4"/>
+      <c r="J92" s="1"/>
     </row>
     <row r="93">
-      <c r="J93" s="4"/>
+      <c r="J93" s="1"/>
     </row>
     <row r="94">
-      <c r="J94" s="4"/>
+      <c r="J94" s="1"/>
     </row>
     <row r="95">
-      <c r="J95" s="4"/>
+      <c r="J95" s="1"/>
     </row>
     <row r="96">
-      <c r="J96" s="4"/>
+      <c r="J96" s="1"/>
     </row>
     <row r="97">
-      <c r="J97" s="4"/>
+      <c r="J97" s="1"/>
     </row>
     <row r="98">
-      <c r="J98" s="4"/>
+      <c r="J98" s="1"/>
     </row>
     <row r="99">
-      <c r="J99" s="4"/>
+      <c r="J99" s="1"/>
     </row>
     <row r="100">
-      <c r="J100" s="4"/>
+      <c r="J100" s="1"/>
     </row>
     <row r="101">
-      <c r="J101" s="4"/>
+      <c r="J101" s="1"/>
     </row>
     <row r="102">
-      <c r="J102" s="4"/>
+      <c r="J102" s="1"/>
     </row>
     <row r="103">
-      <c r="J103" s="4"/>
+      <c r="J103" s="1"/>
     </row>
     <row r="104">
-      <c r="J104" s="4"/>
+      <c r="J104" s="1"/>
     </row>
     <row r="105">
-      <c r="J105" s="4"/>
+      <c r="J105" s="1"/>
     </row>
     <row r="106">
-      <c r="J106" s="4"/>
+      <c r="J106" s="1"/>
     </row>
     <row r="107">
-      <c r="J107" s="4"/>
+      <c r="J107" s="1"/>
     </row>
     <row r="108">
-      <c r="J108" s="4"/>
+      <c r="J108" s="1"/>
     </row>
     <row r="109">
-      <c r="J109" s="4"/>
+      <c r="J109" s="1"/>
     </row>
     <row r="110">
-      <c r="J110" s="4"/>
+      <c r="J110" s="1"/>
     </row>
     <row r="111">
-      <c r="J111" s="4"/>
+      <c r="J111" s="1"/>
     </row>
     <row r="112">
-      <c r="J112" s="4"/>
+      <c r="J112" s="1"/>
     </row>
     <row r="113">
-      <c r="J113" s="4"/>
+      <c r="J113" s="1"/>
     </row>
     <row r="114">
-      <c r="J114" s="4"/>
+      <c r="J114" s="1"/>
     </row>
     <row r="115">
-      <c r="J115" s="4"/>
+      <c r="J115" s="1"/>
     </row>
     <row r="116">
-      <c r="J116" s="4"/>
+      <c r="J116" s="1"/>
     </row>
     <row r="117">
-      <c r="J117" s="4"/>
+      <c r="J117" s="1"/>
     </row>
     <row r="118">
-      <c r="J118" s="4"/>
+      <c r="J118" s="1"/>
     </row>
     <row r="119">
-      <c r="J119" s="4"/>
+      <c r="J119" s="1"/>
     </row>
     <row r="120">
-      <c r="J120" s="4"/>
+      <c r="J120" s="1"/>
     </row>
     <row r="121">
-      <c r="J121" s="4"/>
+      <c r="J121" s="1"/>
     </row>
     <row r="122">
-      <c r="J122" s="4"/>
+      <c r="J122" s="1"/>
     </row>
     <row r="123">
-      <c r="J123" s="4"/>
+      <c r="J123" s="1"/>
     </row>
     <row r="124">
-      <c r="J124" s="4"/>
+      <c r="J124" s="1"/>
     </row>
     <row r="125">
-      <c r="J125" s="4"/>
+      <c r="J125" s="1"/>
     </row>
     <row r="126">
-      <c r="J126" s="4"/>
+      <c r="J126" s="1"/>
     </row>
     <row r="127">
-      <c r="J127" s="4"/>
+      <c r="J127" s="1"/>
     </row>
     <row r="128">
-      <c r="J128" s="4"/>
+      <c r="J128" s="1"/>
     </row>
     <row r="129">
-      <c r="J129" s="4"/>
+      <c r="J129" s="1"/>
     </row>
     <row r="130">
-      <c r="J130" s="4"/>
+      <c r="J130" s="1"/>
     </row>
     <row r="131">
-      <c r="J131" s="4"/>
+      <c r="J131" s="1"/>
     </row>
     <row r="132">
-      <c r="J132" s="4"/>
+      <c r="J132" s="1"/>
     </row>
     <row r="133">
-      <c r="J133" s="4"/>
+      <c r="J133" s="1"/>
     </row>
     <row r="134">
-      <c r="J134" s="4"/>
+      <c r="J134" s="1"/>
     </row>
     <row r="135">
-      <c r="J135" s="4"/>
+      <c r="J135" s="1"/>
     </row>
     <row r="136">
-      <c r="J136" s="4"/>
+      <c r="J136" s="1"/>
     </row>
     <row r="137">
-      <c r="J137" s="4"/>
+      <c r="J137" s="1"/>
     </row>
     <row r="138">
-      <c r="J138" s="4"/>
+      <c r="J138" s="1"/>
     </row>
     <row r="139">
-      <c r="J139" s="4"/>
+      <c r="J139" s="1"/>
     </row>
     <row r="140">
-      <c r="J140" s="4"/>
+      <c r="J140" s="1"/>
     </row>
     <row r="141">
-      <c r="J141" s="4"/>
+      <c r="J141" s="1"/>
     </row>
     <row r="142">
-      <c r="J142" s="4"/>
+      <c r="J142" s="1"/>
     </row>
     <row r="143">
-      <c r="J143" s="4"/>
+      <c r="J143" s="1"/>
     </row>
     <row r="144">
-      <c r="J144" s="4"/>
+      <c r="J144" s="1"/>
     </row>
     <row r="145">
-      <c r="J145" s="4"/>
+      <c r="J145" s="1"/>
     </row>
     <row r="146">
-      <c r="J146" s="4"/>
+      <c r="J146" s="1"/>
     </row>
     <row r="147">
-      <c r="J147" s="4"/>
+      <c r="J147" s="1"/>
     </row>
     <row r="148">
-      <c r="J148" s="4"/>
+      <c r="J148" s="1"/>
     </row>
     <row r="149">
-      <c r="J149" s="4"/>
+      <c r="J149" s="1"/>
     </row>
     <row r="150">
-      <c r="J150" s="4"/>
+      <c r="J150" s="1"/>
     </row>
     <row r="151">
-      <c r="J151" s="4"/>
+      <c r="J151" s="1"/>
     </row>
     <row r="152">
-      <c r="J152" s="4"/>
+      <c r="J152" s="1"/>
     </row>
     <row r="153">
-      <c r="J153" s="4"/>
+      <c r="J153" s="1"/>
     </row>
     <row r="154">
-      <c r="J154" s="4"/>
+      <c r="J154" s="1"/>
     </row>
     <row r="155">
-      <c r="J155" s="4"/>
+      <c r="J155" s="1"/>
     </row>
     <row r="156">
-      <c r="J156" s="4"/>
+      <c r="J156" s="1"/>
     </row>
     <row r="157">
-      <c r="J157" s="4"/>
+      <c r="J157" s="1"/>
     </row>
     <row r="158">
-      <c r="J158" s="4"/>
+      <c r="J158" s="1"/>
     </row>
     <row r="159">
-      <c r="J159" s="4"/>
+      <c r="J159" s="1"/>
     </row>
     <row r="160">
-      <c r="J160" s="4"/>
+      <c r="J160" s="1"/>
     </row>
     <row r="161">
-      <c r="J161" s="4"/>
+      <c r="J161" s="1"/>
     </row>
     <row r="162">
-      <c r="J162" s="4"/>
+      <c r="J162" s="1"/>
     </row>
     <row r="163">
-      <c r="J163" s="4"/>
+      <c r="J163" s="1"/>
     </row>
     <row r="164">
-      <c r="J164" s="4"/>
+      <c r="J164" s="1"/>
     </row>
     <row r="165">
-      <c r="J165" s="4"/>
+      <c r="J165" s="1"/>
     </row>
     <row r="166">
-      <c r="J166" s="4"/>
+      <c r="J166" s="1"/>
     </row>
     <row r="167">
-      <c r="J167" s="4"/>
+      <c r="J167" s="1"/>
     </row>
     <row r="168">
-      <c r="J168" s="4"/>
+      <c r="J168" s="1"/>
     </row>
     <row r="169">
-      <c r="J169" s="4"/>
+      <c r="J169" s="1"/>
     </row>
     <row r="170">
-      <c r="J170" s="4"/>
+      <c r="J170" s="1"/>
     </row>
     <row r="171">
-      <c r="J171" s="4"/>
+      <c r="J171" s="1"/>
     </row>
     <row r="172">
-      <c r="J172" s="4"/>
+      <c r="J172" s="1"/>
     </row>
     <row r="173">
-      <c r="J173" s="4"/>
+      <c r="J173" s="1"/>
     </row>
     <row r="174">
-      <c r="J174" s="4"/>
+      <c r="J174" s="1"/>
     </row>
     <row r="175">
-      <c r="J175" s="4"/>
+      <c r="J175" s="1"/>
     </row>
     <row r="176">
-      <c r="J176" s="4"/>
+      <c r="J176" s="1"/>
     </row>
     <row r="177">
-      <c r="J177" s="4"/>
+      <c r="J177" s="1"/>
     </row>
     <row r="178">
-      <c r="J178" s="4"/>
+      <c r="J178" s="1"/>
     </row>
     <row r="179">
-      <c r="J179" s="4"/>
+      <c r="J179" s="1"/>
     </row>
     <row r="180">
-      <c r="J180" s="4"/>
+      <c r="J180" s="1"/>
     </row>
     <row r="181">
-      <c r="J181" s="4"/>
+      <c r="J181" s="1"/>
     </row>
     <row r="182">
-      <c r="J182" s="4"/>
+      <c r="J182" s="1"/>
     </row>
     <row r="183">
-      <c r="J183" s="4"/>
+      <c r="J183" s="1"/>
     </row>
     <row r="184">
-      <c r="J184" s="4"/>
+      <c r="J184" s="1"/>
     </row>
     <row r="185">
-      <c r="J185" s="4"/>
+      <c r="J185" s="1"/>
     </row>
     <row r="186">
-      <c r="J186" s="4"/>
+      <c r="J186" s="1"/>
     </row>
     <row r="187">
-      <c r="J187" s="4"/>
+      <c r="J187" s="1"/>
     </row>
     <row r="188">
-      <c r="J188" s="4"/>
+      <c r="J188" s="1"/>
     </row>
     <row r="189">
-      <c r="J189" s="4"/>
+      <c r="J189" s="1"/>
     </row>
     <row r="190">
-      <c r="J190" s="4"/>
+      <c r="J190" s="1"/>
     </row>
     <row r="191">
-      <c r="J191" s="4"/>
+      <c r="J191" s="1"/>
     </row>
     <row r="192">
-      <c r="J192" s="4"/>
+      <c r="J192" s="1"/>
     </row>
     <row r="193">
-      <c r="J193" s="4"/>
+      <c r="J193" s="1"/>
     </row>
     <row r="194">
-      <c r="J194" s="4"/>
+      <c r="J194" s="1"/>
     </row>
     <row r="195">
-      <c r="J195" s="4"/>
+      <c r="J195" s="1"/>
     </row>
     <row r="196">
-      <c r="J196" s="4"/>
+      <c r="J196" s="1"/>
     </row>
     <row r="197">
-      <c r="J197" s="4"/>
+      <c r="J197" s="1"/>
     </row>
     <row r="198">
-      <c r="J198" s="4"/>
+      <c r="J198" s="1"/>
     </row>
     <row r="199">
-      <c r="J199" s="4"/>
+      <c r="J199" s="1"/>
     </row>
     <row r="200">
-      <c r="J200" s="4"/>
+      <c r="J200" s="1"/>
     </row>
     <row r="201">
-      <c r="J201" s="4"/>
+      <c r="J201" s="1"/>
     </row>
     <row r="202">
-      <c r="J202" s="4"/>
+      <c r="J202" s="1"/>
     </row>
     <row r="203">
-      <c r="J203" s="4"/>
+      <c r="J203" s="1"/>
     </row>
     <row r="204">
-      <c r="J204" s="4"/>
+      <c r="J204" s="1"/>
     </row>
     <row r="205">
-      <c r="J205" s="4"/>
+      <c r="J205" s="1"/>
     </row>
     <row r="206">
-      <c r="J206" s="4"/>
+      <c r="J206" s="1"/>
     </row>
     <row r="207">
-      <c r="J207" s="4"/>
+      <c r="J207" s="1"/>
     </row>
     <row r="208">
-      <c r="J208" s="4"/>
+      <c r="J208" s="1"/>
     </row>
     <row r="209">
-      <c r="J209" s="4"/>
+      <c r="J209" s="1"/>
     </row>
     <row r="210">
-      <c r="J210" s="4"/>
+      <c r="J210" s="1"/>
     </row>
     <row r="211">
-      <c r="J211" s="4"/>
+      <c r="J211" s="1"/>
     </row>
     <row r="212">
-      <c r="J212" s="4"/>
+      <c r="J212" s="1"/>
     </row>
     <row r="213">
-      <c r="J213" s="4"/>
+      <c r="J213" s="1"/>
     </row>
     <row r="214">
-      <c r="J214" s="4"/>
+      <c r="J214" s="1"/>
     </row>
     <row r="215">
-      <c r="J215" s="4"/>
+      <c r="J215" s="1"/>
     </row>
     <row r="216">
-      <c r="J216" s="4"/>
+      <c r="J216" s="1"/>
     </row>
     <row r="217">
-      <c r="J217" s="4"/>
+      <c r="J217" s="1"/>
     </row>
     <row r="218">
-      <c r="J218" s="4"/>
+      <c r="J218" s="1"/>
     </row>
     <row r="219">
-      <c r="J219" s="4"/>
+      <c r="J219" s="1"/>
     </row>
     <row r="220">
-      <c r="J220" s="4"/>
+      <c r="J220" s="1"/>
     </row>
     <row r="221">
-      <c r="J221" s="4"/>
+      <c r="J221" s="1"/>
     </row>
     <row r="222">
-      <c r="J222" s="4"/>
+      <c r="J222" s="1"/>
     </row>
     <row r="223">
-      <c r="J223" s="4"/>
+      <c r="J223" s="1"/>
     </row>
     <row r="224">
-      <c r="J224" s="4"/>
+      <c r="J224" s="1"/>
     </row>
     <row r="225">
-      <c r="J225" s="4"/>
+      <c r="J225" s="1"/>
     </row>
     <row r="226">
-      <c r="J226" s="4"/>
+      <c r="J226" s="1"/>
     </row>
     <row r="227">
-      <c r="J227" s="4"/>
+      <c r="J227" s="1"/>
     </row>
     <row r="228">
-      <c r="J228" s="4"/>
+      <c r="J228" s="1"/>
     </row>
     <row r="229">
-      <c r="J229" s="4"/>
+      <c r="J229" s="1"/>
     </row>
     <row r="230">
-      <c r="J230" s="4"/>
+      <c r="J230" s="1"/>
     </row>
     <row r="231">
-      <c r="J231" s="4"/>
+      <c r="J231" s="1"/>
     </row>
     <row r="232">
-      <c r="J232" s="4"/>
+      <c r="J232" s="1"/>
     </row>
     <row r="233">
-      <c r="J233" s="4"/>
+      <c r="J233" s="1"/>
     </row>
     <row r="234">
-      <c r="J234" s="4"/>
+      <c r="J234" s="1"/>
     </row>
     <row r="235">
-      <c r="J235" s="4"/>
+      <c r="J235" s="1"/>
     </row>
     <row r="236">
-      <c r="J236" s="4"/>
+      <c r="J236" s="1"/>
     </row>
     <row r="237">
-      <c r="J237" s="4"/>
+      <c r="J237" s="1"/>
     </row>
     <row r="238">
-      <c r="J238" s="4"/>
+      <c r="J238" s="1"/>
     </row>
     <row r="239">
-      <c r="J239" s="4"/>
+      <c r="J239" s="1"/>
     </row>
     <row r="240">
-      <c r="J240" s="4"/>
+      <c r="J240" s="1"/>
     </row>
     <row r="241">
-      <c r="J241" s="4"/>
+      <c r="J241" s="1"/>
     </row>
     <row r="242">
-      <c r="J242" s="4"/>
+      <c r="J242" s="1"/>
     </row>
     <row r="243">
-      <c r="J243" s="4"/>
+      <c r="J243" s="1"/>
     </row>
     <row r="244">
-      <c r="J244" s="4"/>
+      <c r="J244" s="1"/>
     </row>
     <row r="245">
-      <c r="J245" s="4"/>
+      <c r="J245" s="1"/>
     </row>
     <row r="246">
-      <c r="J246" s="4"/>
+      <c r="J246" s="1"/>
     </row>
     <row r="247">
-      <c r="J247" s="4"/>
+      <c r="J247" s="1"/>
     </row>
     <row r="248">
-      <c r="J248" s="4"/>
+      <c r="J248" s="1"/>
     </row>
     <row r="249">
-      <c r="J249" s="4"/>
+      <c r="J249" s="1"/>
     </row>
     <row r="250">
-      <c r="J250" s="4"/>
+      <c r="J250" s="1"/>
     </row>
     <row r="251">
-      <c r="J251" s="4"/>
+      <c r="J251" s="1"/>
     </row>
     <row r="252">
-      <c r="J252" s="4"/>
+      <c r="J252" s="1"/>
     </row>
     <row r="253">
-      <c r="J253" s="4"/>
+      <c r="J253" s="1"/>
     </row>
     <row r="254">
-      <c r="J254" s="4"/>
+      <c r="J254" s="1"/>
     </row>
     <row r="255">
-      <c r="J255" s="4"/>
+      <c r="J255" s="1"/>
     </row>
     <row r="256">
-      <c r="J256" s="4"/>
+      <c r="J256" s="1"/>
     </row>
     <row r="257">
-      <c r="J257" s="4"/>
+      <c r="J257" s="1"/>
     </row>
     <row r="258">
-      <c r="J258" s="4"/>
+      <c r="J258" s="1"/>
     </row>
     <row r="259">
-      <c r="J259" s="4"/>
+      <c r="J259" s="1"/>
     </row>
     <row r="260">
-      <c r="J260" s="4"/>
+      <c r="J260" s="1"/>
     </row>
     <row r="261">
-      <c r="J261" s="4"/>
+      <c r="J261" s="1"/>
     </row>
     <row r="262">
-      <c r="J262" s="4"/>
+      <c r="J262" s="1"/>
     </row>
     <row r="263">
-      <c r="J263" s="4"/>
+      <c r="J263" s="1"/>
     </row>
     <row r="264">
-      <c r="J264" s="4"/>
+      <c r="J264" s="1"/>
     </row>
     <row r="265">
-      <c r="J265" s="4"/>
+      <c r="J265" s="1"/>
     </row>
     <row r="266">
-      <c r="J266" s="4"/>
+      <c r="J266" s="1"/>
     </row>
     <row r="267">
-      <c r="J267" s="4"/>
+      <c r="J267" s="1"/>
     </row>
     <row r="268">
-      <c r="J268" s="4"/>
+      <c r="J268" s="1"/>
     </row>
     <row r="269">
-      <c r="J269" s="4"/>
+      <c r="J269" s="1"/>
     </row>
     <row r="270">
-      <c r="J270" s="4"/>
+      <c r="J270" s="1"/>
     </row>
     <row r="271">
-      <c r="J271" s="4"/>
+      <c r="J271" s="1"/>
     </row>
     <row r="272">
-      <c r="J272" s="4"/>
+      <c r="J272" s="1"/>
     </row>
     <row r="273">
-      <c r="J273" s="4"/>
+      <c r="J273" s="1"/>
     </row>
     <row r="274">
-      <c r="J274" s="4"/>
+      <c r="J274" s="1"/>
     </row>
     <row r="275">
-      <c r="J275" s="4"/>
+      <c r="J275" s="1"/>
     </row>
     <row r="276">
-      <c r="J276" s="4"/>
+      <c r="J276" s="1"/>
     </row>
     <row r="277">
-      <c r="J277" s="4"/>
+      <c r="J277" s="1"/>
     </row>
     <row r="278">
-      <c r="J278" s="4"/>
+      <c r="J278" s="1"/>
     </row>
     <row r="279">
-      <c r="J279" s="4"/>
+      <c r="J279" s="1"/>
     </row>
     <row r="280">
-      <c r="J280" s="4"/>
+      <c r="J280" s="1"/>
     </row>
     <row r="281">
-      <c r="J281" s="4"/>
+      <c r="J281" s="1"/>
     </row>
     <row r="282">
-      <c r="J282" s="4"/>
+      <c r="J282" s="1"/>
     </row>
     <row r="283">
-      <c r="J283" s="4"/>
+      <c r="J283" s="1"/>
     </row>
     <row r="284">
-      <c r="J284" s="4"/>
+      <c r="J284" s="1"/>
     </row>
     <row r="285">
-      <c r="J285" s="4"/>
+      <c r="J285" s="1"/>
     </row>
     <row r="286">
-      <c r="J286" s="4"/>
+      <c r="J286" s="1"/>
     </row>
     <row r="287">
-      <c r="J287" s="4"/>
+      <c r="J287" s="1"/>
     </row>
     <row r="288">
-      <c r="J288" s="4"/>
+      <c r="J288" s="1"/>
     </row>
     <row r="289">
-      <c r="J289" s="4"/>
+      <c r="J289" s="1"/>
     </row>
     <row r="290">
-      <c r="J290" s="4"/>
+      <c r="J290" s="1"/>
     </row>
     <row r="291">
-      <c r="J291" s="4"/>
+      <c r="J291" s="1"/>
     </row>
     <row r="292">
-      <c r="J292" s="4"/>
+      <c r="J292" s="1"/>
     </row>
     <row r="293">
-      <c r="J293" s="4"/>
+      <c r="J293" s="1"/>
     </row>
     <row r="294">
-      <c r="J294" s="4"/>
+      <c r="J294" s="1"/>
     </row>
     <row r="295">
-      <c r="J295" s="4"/>
+      <c r="J295" s="1"/>
     </row>
     <row r="296">
-      <c r="J296" s="4"/>
+      <c r="J296" s="1"/>
     </row>
     <row r="297">
-      <c r="J297" s="4"/>
+      <c r="J297" s="1"/>
     </row>
     <row r="298">
-      <c r="J298" s="4"/>
+      <c r="J298" s="1"/>
     </row>
     <row r="299">
-      <c r="J299" s="4"/>
+      <c r="J299" s="1"/>
     </row>
     <row r="300">
-      <c r="J300" s="4"/>
+      <c r="J300" s="1"/>
     </row>
     <row r="301">
-      <c r="J301" s="4"/>
+      <c r="J301" s="1"/>
     </row>
     <row r="302">
-      <c r="J302" s="4"/>
+      <c r="J302" s="1"/>
     </row>
     <row r="303">
-      <c r="J303" s="4"/>
+      <c r="J303" s="1"/>
     </row>
     <row r="304">
-      <c r="J304" s="4"/>
+      <c r="J304" s="1"/>
     </row>
     <row r="305">
-      <c r="J305" s="4"/>
+      <c r="J305" s="1"/>
     </row>
     <row r="306">
-      <c r="J306" s="4"/>
+      <c r="J306" s="1"/>
     </row>
     <row r="307">
-      <c r="J307" s="4"/>
+      <c r="J307" s="1"/>
     </row>
     <row r="308">
-      <c r="J308" s="4"/>
+      <c r="J308" s="1"/>
     </row>
     <row r="309">
-      <c r="J309" s="4"/>
+      <c r="J309" s="1"/>
     </row>
     <row r="310">
-      <c r="J310" s="4"/>
+      <c r="J310" s="1"/>
     </row>
     <row r="311">
-      <c r="J311" s="4"/>
+      <c r="J311" s="1"/>
     </row>
     <row r="312">
-      <c r="J312" s="4"/>
+      <c r="J312" s="1"/>
     </row>
     <row r="313">
-      <c r="J313" s="4"/>
+      <c r="J313" s="1"/>
     </row>
     <row r="314">
-      <c r="J314" s="4"/>
+      <c r="J314" s="1"/>
     </row>
     <row r="315">
-      <c r="J315" s="4"/>
+      <c r="J315" s="1"/>
     </row>
     <row r="316">
-      <c r="J316" s="4"/>
+      <c r="J316" s="1"/>
     </row>
     <row r="317">
-      <c r="J317" s="4"/>
+      <c r="J317" s="1"/>
     </row>
     <row r="318">
-      <c r="J318" s="4"/>
+      <c r="J318" s="1"/>
     </row>
     <row r="319">
-      <c r="J319" s="4"/>
+      <c r="J319" s="1"/>
     </row>
     <row r="320">
-      <c r="J320" s="4"/>
+      <c r="J320" s="1"/>
     </row>
     <row r="321">
-      <c r="J321" s="4"/>
+      <c r="J321" s="1"/>
     </row>
     <row r="322">
-      <c r="J322" s="4"/>
+      <c r="J322" s="1"/>
     </row>
     <row r="323">
-      <c r="J323" s="4"/>
+      <c r="J323" s="1"/>
     </row>
     <row r="324">
-      <c r="J324" s="4"/>
+      <c r="J324" s="1"/>
     </row>
     <row r="325">
-      <c r="J325" s="4"/>
+      <c r="J325" s="1"/>
     </row>
     <row r="326">
-      <c r="J326" s="4"/>
+      <c r="J326" s="1"/>
     </row>
     <row r="327">
-      <c r="J327" s="4"/>
+      <c r="J327" s="1"/>
     </row>
     <row r="328">
-      <c r="J328" s="4"/>
+      <c r="J328" s="1"/>
     </row>
     <row r="329">
-      <c r="J329" s="4"/>
+      <c r="J329" s="1"/>
     </row>
     <row r="330">
-      <c r="J330" s="4"/>
+      <c r="J330" s="1"/>
     </row>
     <row r="331">
-      <c r="J331" s="4"/>
+      <c r="J331" s="1"/>
     </row>
     <row r="332">
-      <c r="J332" s="4"/>
+      <c r="J332" s="1"/>
     </row>
     <row r="333">
-      <c r="J333" s="4"/>
+      <c r="J333" s="1"/>
     </row>
     <row r="334">
-      <c r="J334" s="4"/>
+      <c r="J334" s="1"/>
     </row>
     <row r="335">
-      <c r="J335" s="4"/>
+      <c r="J335" s="1"/>
     </row>
     <row r="336">
-      <c r="J336" s="4"/>
+      <c r="J336" s="1"/>
     </row>
     <row r="337">
-      <c r="J337" s="4"/>
+      <c r="J337" s="1"/>
     </row>
     <row r="338">
-      <c r="J338" s="4"/>
+      <c r="J338" s="1"/>
     </row>
     <row r="339">
-      <c r="J339" s="4"/>
+      <c r="J339" s="1"/>
     </row>
     <row r="340">
-      <c r="J340" s="4"/>
+      <c r="J340" s="1"/>
     </row>
     <row r="341">
-      <c r="J341" s="4"/>
+      <c r="J341" s="1"/>
     </row>
     <row r="342">
-      <c r="J342" s="4"/>
+      <c r="J342" s="1"/>
     </row>
     <row r="343">
-      <c r="J343" s="4"/>
+      <c r="J343" s="1"/>
     </row>
     <row r="344">
-      <c r="J344" s="4"/>
+      <c r="J344" s="1"/>
     </row>
     <row r="345">
-      <c r="J345" s="4"/>
+      <c r="J345" s="1"/>
     </row>
     <row r="346">
-      <c r="J346" s="4"/>
+      <c r="J346" s="1"/>
     </row>
     <row r="347">
-      <c r="J347" s="4"/>
+      <c r="J347" s="1"/>
     </row>
     <row r="348">
-      <c r="J348" s="4"/>
+      <c r="J348" s="1"/>
     </row>
     <row r="349">
-      <c r="J349" s="4"/>
+      <c r="J349" s="1"/>
     </row>
     <row r="350">
-      <c r="J350" s="4"/>
+      <c r="J350" s="1"/>
     </row>
     <row r="351">
-      <c r="J351" s="4"/>
+      <c r="J351" s="1"/>
     </row>
     <row r="352">
-      <c r="J352" s="4"/>
+      <c r="J352" s="1"/>
     </row>
     <row r="353">
-      <c r="J353" s="4"/>
+      <c r="J353" s="1"/>
     </row>
     <row r="354">
-      <c r="J354" s="4"/>
+      <c r="J354" s="1"/>
     </row>
     <row r="355">
-      <c r="J355" s="4"/>
+      <c r="J355" s="1"/>
     </row>
     <row r="356">
-      <c r="J356" s="4"/>
+      <c r="J356" s="1"/>
     </row>
     <row r="357">
-      <c r="J357" s="4"/>
+      <c r="J357" s="1"/>
     </row>
     <row r="358">
-      <c r="J358" s="4"/>
+      <c r="J358" s="1"/>
     </row>
     <row r="359">
-      <c r="J359" s="4"/>
+      <c r="J359" s="1"/>
     </row>
     <row r="360">
-      <c r="J360" s="4"/>
+      <c r="J360" s="1"/>
     </row>
     <row r="361">
-      <c r="J361" s="4"/>
+      <c r="J361" s="1"/>
     </row>
     <row r="362">
-      <c r="J362" s="4"/>
+      <c r="J362" s="1"/>
     </row>
     <row r="363">
-      <c r="J363" s="4"/>
+      <c r="J363" s="1"/>
     </row>
     <row r="364">
-      <c r="J364" s="4"/>
+      <c r="J364" s="1"/>
     </row>
     <row r="365">
-      <c r="J365" s="4"/>
+      <c r="J365" s="1"/>
     </row>
     <row r="366">
-      <c r="J366" s="4"/>
+      <c r="J366" s="1"/>
     </row>
     <row r="367">
-      <c r="J367" s="4"/>
+      <c r="J367" s="1"/>
     </row>
     <row r="368">
-      <c r="J368" s="4"/>
+      <c r="J368" s="1"/>
     </row>
     <row r="369">
-      <c r="J369" s="4"/>
+      <c r="J369" s="1"/>
     </row>
     <row r="370">
-      <c r="J370" s="4"/>
+      <c r="J370" s="1"/>
     </row>
     <row r="371">
-      <c r="J371" s="4"/>
+      <c r="J371" s="1"/>
     </row>
     <row r="372">
-      <c r="J372" s="4"/>
+      <c r="J372" s="1"/>
     </row>
     <row r="373">
-      <c r="J373" s="4"/>
+      <c r="J373" s="1"/>
     </row>
     <row r="374">
-      <c r="J374" s="4"/>
+      <c r="J374" s="1"/>
     </row>
     <row r="375">
-      <c r="J375" s="4"/>
+      <c r="J375" s="1"/>
     </row>
     <row r="376">
-      <c r="J376" s="4"/>
+      <c r="J376" s="1"/>
     </row>
     <row r="377">
-      <c r="J377" s="4"/>
+      <c r="J377" s="1"/>
     </row>
     <row r="378">
-      <c r="J378" s="4"/>
+      <c r="J378" s="1"/>
     </row>
     <row r="379">
-      <c r="J379" s="4"/>
+      <c r="J379" s="1"/>
     </row>
     <row r="380">
-      <c r="J380" s="4"/>
+      <c r="J380" s="1"/>
     </row>
     <row r="381">
-      <c r="J381" s="4"/>
+      <c r="J381" s="1"/>
     </row>
     <row r="382">
-      <c r="J382" s="4"/>
+      <c r="J382" s="1"/>
     </row>
     <row r="383">
-      <c r="J383" s="4"/>
+      <c r="J383" s="1"/>
     </row>
     <row r="384">
-      <c r="J384" s="4"/>
+      <c r="J384" s="1"/>
     </row>
     <row r="385">
-      <c r="J385" s="4"/>
+      <c r="J385" s="1"/>
     </row>
     <row r="386">
-      <c r="J386" s="4"/>
+      <c r="J386" s="1"/>
     </row>
     <row r="387">
-      <c r="J387" s="4"/>
+      <c r="J387" s="1"/>
     </row>
     <row r="388">
-      <c r="J388" s="4"/>
+      <c r="J388" s="1"/>
     </row>
     <row r="389">
-      <c r="J389" s="4"/>
+      <c r="J389" s="1"/>
     </row>
     <row r="390">
-      <c r="J390" s="4"/>
+      <c r="J390" s="1"/>
     </row>
     <row r="391">
-      <c r="J391" s="4"/>
+      <c r="J391" s="1"/>
     </row>
     <row r="392">
-      <c r="J392" s="4"/>
+      <c r="J392" s="1"/>
     </row>
     <row r="393">
-      <c r="J393" s="4"/>
+      <c r="J393" s="1"/>
     </row>
     <row r="394">
-      <c r="J394" s="4"/>
+      <c r="J394" s="1"/>
     </row>
     <row r="395">
-      <c r="J395" s="4"/>
+      <c r="J395" s="1"/>
     </row>
     <row r="396">
-      <c r="J396" s="4"/>
+      <c r="J396" s="1"/>
     </row>
     <row r="397">
-      <c r="J397" s="4"/>
+      <c r="J397" s="1"/>
     </row>
     <row r="398">
-      <c r="J398" s="4"/>
+      <c r="J398" s="1"/>
     </row>
     <row r="399">
-      <c r="J399" s="4"/>
+      <c r="J399" s="1"/>
     </row>
     <row r="400">
-      <c r="J400" s="4"/>
+      <c r="J400" s="1"/>
     </row>
     <row r="401">
-      <c r="J401" s="4"/>
+      <c r="J401" s="1"/>
     </row>
     <row r="402">
-      <c r="J402" s="4"/>
+      <c r="J402" s="1"/>
     </row>
     <row r="403">
-      <c r="J403" s="4"/>
+      <c r="J403" s="1"/>
     </row>
     <row r="404">
-      <c r="J404" s="4"/>
+      <c r="J404" s="1"/>
     </row>
     <row r="405">
-      <c r="J405" s="4"/>
+      <c r="J405" s="1"/>
     </row>
     <row r="406">
-      <c r="J406" s="4"/>
+      <c r="J406" s="1"/>
     </row>
     <row r="407">
-      <c r="J407" s="4"/>
+      <c r="J407" s="1"/>
     </row>
     <row r="408">
-      <c r="J408" s="4"/>
+      <c r="J408" s="1"/>
     </row>
     <row r="409">
-      <c r="J409" s="4"/>
+      <c r="J409" s="1"/>
     </row>
     <row r="410">
-      <c r="J410" s="4"/>
+      <c r="J410" s="1"/>
     </row>
     <row r="411">
-      <c r="J411" s="4"/>
+      <c r="J411" s="1"/>
     </row>
     <row r="412">
-      <c r="J412" s="4"/>
+      <c r="J412" s="1"/>
     </row>
     <row r="413">
-      <c r="J413" s="4"/>
+      <c r="J413" s="1"/>
     </row>
     <row r="414">
-      <c r="J414" s="4"/>
+      <c r="J414" s="1"/>
     </row>
     <row r="415">
-      <c r="J415" s="4"/>
+      <c r="J415" s="1"/>
     </row>
     <row r="416">
-      <c r="J416" s="4"/>
+      <c r="J416" s="1"/>
     </row>
     <row r="417">
-      <c r="J417" s="4"/>
+      <c r="J417" s="1"/>
     </row>
     <row r="418">
-      <c r="J418" s="4"/>
+      <c r="J418" s="1"/>
     </row>
     <row r="419">
-      <c r="J419" s="4"/>
+      <c r="J419" s="1"/>
     </row>
     <row r="420">
-      <c r="J420" s="4"/>
+      <c r="J420" s="1"/>
     </row>
     <row r="421">
-      <c r="J421" s="4"/>
+      <c r="J421" s="1"/>
     </row>
     <row r="422">
-      <c r="J422" s="4"/>
+      <c r="J422" s="1"/>
     </row>
     <row r="423">
-      <c r="J423" s="4"/>
+      <c r="J423" s="1"/>
     </row>
     <row r="424">
-      <c r="J424" s="4"/>
+      <c r="J424" s="1"/>
     </row>
     <row r="425">
-      <c r="J425" s="4"/>
+      <c r="J425" s="1"/>
     </row>
     <row r="426">
-      <c r="J426" s="4"/>
+      <c r="J426" s="1"/>
     </row>
     <row r="427">
-      <c r="J427" s="4"/>
+      <c r="J427" s="1"/>
     </row>
     <row r="428">
-      <c r="J428" s="4"/>
+      <c r="J428" s="1"/>
     </row>
     <row r="429">
-      <c r="J429" s="4"/>
+      <c r="J429" s="1"/>
     </row>
     <row r="430">
-      <c r="J430" s="4"/>
+      <c r="J430" s="1"/>
     </row>
     <row r="431">
-      <c r="J431" s="4"/>
+      <c r="J431" s="1"/>
     </row>
     <row r="432">
-      <c r="J432" s="4"/>
+      <c r="J432" s="1"/>
     </row>
     <row r="433">
-      <c r="J433" s="4"/>
+      <c r="J433" s="1"/>
     </row>
     <row r="434">
-      <c r="J434" s="4"/>
+      <c r="J434" s="1"/>
     </row>
     <row r="435">
-      <c r="J435" s="4"/>
+      <c r="J435" s="1"/>
     </row>
     <row r="436">
-      <c r="J436" s="4"/>
+      <c r="J436" s="1"/>
     </row>
     <row r="437">
-      <c r="J437" s="4"/>
+      <c r="J437" s="1"/>
     </row>
     <row r="438">
-      <c r="J438" s="4"/>
+      <c r="J438" s="1"/>
     </row>
     <row r="439">
-      <c r="J439" s="4"/>
+      <c r="J439" s="1"/>
     </row>
     <row r="440">
-      <c r="J440" s="4"/>
+      <c r="J440" s="1"/>
     </row>
     <row r="441">
-      <c r="J441" s="4"/>
+      <c r="J441" s="1"/>
     </row>
     <row r="442">
-      <c r="J442" s="4"/>
+      <c r="J442" s="1"/>
     </row>
     <row r="443">
-      <c r="J443" s="4"/>
+      <c r="J443" s="1"/>
     </row>
     <row r="444">
-      <c r="J444" s="4"/>
+      <c r="J444" s="1"/>
     </row>
     <row r="445">
-      <c r="J445" s="4"/>
+      <c r="J445" s="1"/>
     </row>
     <row r="446">
-      <c r="J446" s="4"/>
+      <c r="J446" s="1"/>
     </row>
     <row r="447">
-      <c r="J447" s="4"/>
+      <c r="J447" s="1"/>
     </row>
     <row r="448">
-      <c r="J448" s="4"/>
+      <c r="J448" s="1"/>
     </row>
     <row r="449">
-      <c r="J449" s="4"/>
+      <c r="J449" s="1"/>
     </row>
     <row r="450">
-      <c r="J450" s="4"/>
+      <c r="J450" s="1"/>
     </row>
     <row r="451">
-      <c r="J451" s="4"/>
+      <c r="J451" s="1"/>
     </row>
     <row r="452">
-      <c r="J452" s="4"/>
+      <c r="J452" s="1"/>
     </row>
     <row r="453">
-      <c r="J453" s="4"/>
+      <c r="J453" s="1"/>
     </row>
     <row r="454">
-      <c r="J454" s="4"/>
+      <c r="J454" s="1"/>
     </row>
     <row r="455">
-      <c r="J455" s="4"/>
+      <c r="J455" s="1"/>
     </row>
     <row r="456">
-      <c r="J456" s="4"/>
+      <c r="J456" s="1"/>
     </row>
     <row r="457">
-      <c r="J457" s="4"/>
+      <c r="J457" s="1"/>
     </row>
     <row r="458">
-      <c r="J458" s="4"/>
+      <c r="J458" s="1"/>
     </row>
     <row r="459">
-      <c r="J459" s="4"/>
+      <c r="J459" s="1"/>
     </row>
     <row r="460">
-      <c r="J460" s="4"/>
+      <c r="J460" s="1"/>
     </row>
     <row r="461">
-      <c r="J461" s="4"/>
+      <c r="J461" s="1"/>
     </row>
     <row r="462">
-      <c r="J462" s="4"/>
+      <c r="J462" s="1"/>
     </row>
     <row r="463">
-      <c r="J463" s="4"/>
+      <c r="J463" s="1"/>
     </row>
     <row r="464">
-      <c r="J464" s="4"/>
+      <c r="J464" s="1"/>
     </row>
     <row r="465">
-      <c r="J465" s="4"/>
+      <c r="J465" s="1"/>
     </row>
     <row r="466">
-      <c r="J466" s="4"/>
+      <c r="J466" s="1"/>
     </row>
     <row r="467">
-      <c r="J467" s="4"/>
+      <c r="J467" s="1"/>
     </row>
     <row r="468">
-      <c r="J468" s="4"/>
+      <c r="J468" s="1"/>
     </row>
     <row r="469">
-      <c r="J469" s="4"/>
+      <c r="J469" s="1"/>
     </row>
     <row r="470">
-      <c r="J470" s="4"/>
+      <c r="J470" s="1"/>
     </row>
     <row r="471">
-      <c r="J471" s="4"/>
+      <c r="J471" s="1"/>
     </row>
     <row r="472">
-      <c r="J472" s="4"/>
+      <c r="J472" s="1"/>
     </row>
     <row r="473">
-      <c r="J473" s="4"/>
+      <c r="J473" s="1"/>
     </row>
     <row r="474">
-      <c r="J474" s="4"/>
+      <c r="J474" s="1"/>
     </row>
     <row r="475">
-      <c r="J475" s="4"/>
+      <c r="J475" s="1"/>
     </row>
     <row r="476">
-      <c r="J476" s="4"/>
+      <c r="J476" s="1"/>
     </row>
     <row r="477">
-      <c r="J477" s="4"/>
+      <c r="J477" s="1"/>
     </row>
     <row r="478">
-      <c r="J478" s="4"/>
+      <c r="J478" s="1"/>
     </row>
     <row r="479">
-      <c r="J479" s="4"/>
+      <c r="J479" s="1"/>
     </row>
     <row r="480">
-      <c r="J480" s="4"/>
+      <c r="J480" s="1"/>
     </row>
     <row r="481">
-      <c r="J481" s="4"/>
+      <c r="J481" s="1"/>
     </row>
     <row r="482">
-      <c r="J482" s="4"/>
+      <c r="J482" s="1"/>
     </row>
     <row r="483">
-      <c r="J483" s="4"/>
+      <c r="J483" s="1"/>
     </row>
     <row r="484">
-      <c r="J484" s="4"/>
+      <c r="J484" s="1"/>
     </row>
     <row r="485">
-      <c r="J485" s="4"/>
+      <c r="J485" s="1"/>
     </row>
     <row r="486">
-      <c r="J486" s="4"/>
+      <c r="J486" s="1"/>
     </row>
     <row r="487">
-      <c r="J487" s="4"/>
+      <c r="J487" s="1"/>
     </row>
     <row r="488">
-      <c r="J488" s="4"/>
+      <c r="J488" s="1"/>
     </row>
     <row r="489">
-      <c r="J489" s="4"/>
+      <c r="J489" s="1"/>
     </row>
     <row r="490">
-      <c r="J490" s="4"/>
+      <c r="J490" s="1"/>
     </row>
     <row r="491">
-      <c r="J491" s="4"/>
+      <c r="J491" s="1"/>
     </row>
     <row r="492">
-      <c r="J492" s="4"/>
+      <c r="J492" s="1"/>
     </row>
     <row r="493">
-      <c r="J493" s="4"/>
+      <c r="J493" s="1"/>
     </row>
     <row r="494">
-      <c r="J494" s="4"/>
+      <c r="J494" s="1"/>
     </row>
     <row r="495">
-      <c r="J495" s="4"/>
+      <c r="J495" s="1"/>
     </row>
     <row r="496">
-      <c r="J496" s="4"/>
+      <c r="J496" s="1"/>
     </row>
     <row r="497">
-      <c r="J497" s="4"/>
+      <c r="J497" s="1"/>
     </row>
     <row r="498">
-      <c r="J498" s="4"/>
+      <c r="J498" s="1"/>
     </row>
     <row r="499">
-      <c r="J499" s="4"/>
+      <c r="J499" s="1"/>
     </row>
     <row r="500">
-      <c r="J500" s="4"/>
+      <c r="J500" s="1"/>
     </row>
     <row r="501">
-      <c r="J501" s="4"/>
+      <c r="J501" s="1"/>
     </row>
     <row r="502">
-      <c r="J502" s="4"/>
+      <c r="J502" s="1"/>
     </row>
     <row r="503">
-      <c r="J503" s="4"/>
+      <c r="J503" s="1"/>
     </row>
     <row r="504">
-      <c r="J504" s="4"/>
+      <c r="J504" s="1"/>
     </row>
     <row r="505">
-      <c r="J505" s="4"/>
+      <c r="J505" s="1"/>
     </row>
     <row r="506">
-      <c r="J506" s="4"/>
+      <c r="J506" s="1"/>
     </row>
     <row r="507">
-      <c r="J507" s="4"/>
+      <c r="J507" s="1"/>
     </row>
     <row r="508">
-      <c r="J508" s="4"/>
+      <c r="J508" s="1"/>
     </row>
     <row r="509">
-      <c r="J509" s="4"/>
+      <c r="J509" s="1"/>
     </row>
     <row r="510">
-      <c r="J510" s="4"/>
+      <c r="J510" s="1"/>
     </row>
     <row r="511">
-      <c r="J511" s="4"/>
+      <c r="J511" s="1"/>
     </row>
     <row r="512">
-      <c r="J512" s="4"/>
+      <c r="J512" s="1"/>
     </row>
     <row r="513">
-      <c r="J513" s="4"/>
+      <c r="J513" s="1"/>
     </row>
     <row r="514">
-      <c r="J514" s="4"/>
+      <c r="J514" s="1"/>
     </row>
     <row r="515">
-      <c r="J515" s="4"/>
+      <c r="J515" s="1"/>
     </row>
     <row r="516">
-      <c r="J516" s="4"/>
+      <c r="J516" s="1"/>
     </row>
     <row r="517">
-      <c r="J517" s="4"/>
+      <c r="J517" s="1"/>
     </row>
     <row r="518">
-      <c r="J518" s="4"/>
+      <c r="J518" s="1"/>
     </row>
     <row r="519">
-      <c r="J519" s="4"/>
+      <c r="J519" s="1"/>
     </row>
     <row r="520">
-      <c r="J520" s="4"/>
+      <c r="J520" s="1"/>
     </row>
     <row r="521">
-      <c r="J521" s="4"/>
+      <c r="J521" s="1"/>
     </row>
     <row r="522">
-      <c r="J522" s="4"/>
+      <c r="J522" s="1"/>
     </row>
     <row r="523">
-      <c r="J523" s="4"/>
+      <c r="J523" s="1"/>
     </row>
     <row r="524">
-      <c r="J524" s="4"/>
+      <c r="J524" s="1"/>
     </row>
     <row r="525">
-      <c r="J525" s="4"/>
+      <c r="J525" s="1"/>
     </row>
     <row r="526">
-      <c r="J526" s="4"/>
+      <c r="J526" s="1"/>
     </row>
     <row r="527">
-      <c r="J527" s="4"/>
+      <c r="J527" s="1"/>
     </row>
     <row r="528">
-      <c r="J528" s="4"/>
+      <c r="J528" s="1"/>
     </row>
     <row r="529">
-      <c r="J529" s="4"/>
+      <c r="J529" s="1"/>
     </row>
     <row r="530">
-      <c r="J530" s="4"/>
+      <c r="J530" s="1"/>
     </row>
     <row r="531">
-      <c r="J531" s="4"/>
+      <c r="J531" s="1"/>
     </row>
     <row r="532">
-      <c r="J532" s="4"/>
+      <c r="J532" s="1"/>
     </row>
     <row r="533">
-      <c r="J533" s="4"/>
+      <c r="J533" s="1"/>
     </row>
     <row r="534">
-      <c r="J534" s="4"/>
+      <c r="J534" s="1"/>
     </row>
     <row r="535">
-      <c r="J535" s="4"/>
+      <c r="J535" s="1"/>
     </row>
     <row r="536">
-      <c r="J536" s="4"/>
+      <c r="J536" s="1"/>
     </row>
     <row r="537">
-      <c r="J537" s="4"/>
+      <c r="J537" s="1"/>
     </row>
     <row r="538">
-      <c r="J538" s="4"/>
+      <c r="J538" s="1"/>
     </row>
     <row r="539">
-      <c r="J539" s="4"/>
+      <c r="J539" s="1"/>
     </row>
     <row r="540">
-      <c r="J540" s="4"/>
+      <c r="J540" s="1"/>
     </row>
     <row r="541">
-      <c r="J541" s="4"/>
+      <c r="J541" s="1"/>
     </row>
     <row r="542">
-      <c r="J542" s="4"/>
+      <c r="J542" s="1"/>
     </row>
     <row r="543">
-      <c r="J543" s="4"/>
+      <c r="J543" s="1"/>
     </row>
     <row r="544">
-      <c r="J544" s="4"/>
+      <c r="J544" s="1"/>
     </row>
     <row r="545">
-      <c r="J545" s="4"/>
+      <c r="J545" s="1"/>
     </row>
     <row r="546">
-      <c r="J546" s="4"/>
+      <c r="J546" s="1"/>
     </row>
     <row r="547">
-      <c r="J547" s="4"/>
+      <c r="J547" s="1"/>
     </row>
     <row r="548">
-      <c r="J548" s="4"/>
+      <c r="J548" s="1"/>
     </row>
     <row r="549">
-      <c r="J549" s="4"/>
+      <c r="J549" s="1"/>
     </row>
     <row r="550">
-      <c r="J550" s="4"/>
+      <c r="J550" s="1"/>
     </row>
     <row r="551">
-      <c r="J551" s="4"/>
+      <c r="J551" s="1"/>
     </row>
     <row r="552">
-      <c r="J552" s="4"/>
+      <c r="J552" s="1"/>
     </row>
     <row r="553">
-      <c r="J553" s="4"/>
+      <c r="J553" s="1"/>
     </row>
     <row r="554">
-      <c r="J554" s="4"/>
+      <c r="J554" s="1"/>
     </row>
     <row r="555">
-      <c r="J555" s="4"/>
+      <c r="J555" s="1"/>
     </row>
     <row r="556">
-      <c r="J556" s="4"/>
+      <c r="J556" s="1"/>
     </row>
     <row r="557">
-      <c r="J557" s="4"/>
+      <c r="J557" s="1"/>
     </row>
     <row r="558">
-      <c r="J558" s="4"/>
+      <c r="J558" s="1"/>
     </row>
     <row r="559">
-      <c r="J559" s="4"/>
+      <c r="J559" s="1"/>
     </row>
     <row r="560">
-      <c r="J560" s="4"/>
+      <c r="J560" s="1"/>
     </row>
     <row r="561">
-      <c r="J561" s="4"/>
+      <c r="J561" s="1"/>
     </row>
     <row r="562">
-      <c r="J562" s="4"/>
+      <c r="J562" s="1"/>
     </row>
     <row r="563">
-      <c r="J563" s="4"/>
+      <c r="J563" s="1"/>
     </row>
     <row r="564">
-      <c r="J564" s="4"/>
+      <c r="J564" s="1"/>
     </row>
     <row r="565">
-      <c r="J565" s="4"/>
+      <c r="J565" s="1"/>
     </row>
     <row r="566">
-      <c r="J566" s="4"/>
+      <c r="J566" s="1"/>
     </row>
     <row r="567">
-      <c r="J567" s="4"/>
+      <c r="J567" s="1"/>
     </row>
     <row r="568">
-      <c r="J568" s="4"/>
+      <c r="J568" s="1"/>
     </row>
     <row r="569">
-      <c r="J569" s="4"/>
+      <c r="J569" s="1"/>
     </row>
     <row r="570">
-      <c r="J570" s="4"/>
+      <c r="J570" s="1"/>
     </row>
     <row r="571">
-      <c r="J571" s="4"/>
+      <c r="J571" s="1"/>
     </row>
     <row r="572">
-      <c r="J572" s="4"/>
+      <c r="J572" s="1"/>
     </row>
     <row r="573">
-      <c r="J573" s="4"/>
+      <c r="J573" s="1"/>
     </row>
     <row r="574">
-      <c r="J574" s="4"/>
+      <c r="J574" s="1"/>
     </row>
     <row r="575">
-      <c r="J575" s="4"/>
+      <c r="J575" s="1"/>
     </row>
     <row r="576">
-      <c r="J576" s="4"/>
+      <c r="J576" s="1"/>
     </row>
     <row r="577">
-      <c r="J577" s="4"/>
+      <c r="J577" s="1"/>
     </row>
     <row r="578">
-      <c r="J578" s="4"/>
+      <c r="J578" s="1"/>
     </row>
     <row r="579">
-      <c r="J579" s="4"/>
+      <c r="J579" s="1"/>
     </row>
     <row r="580">
-      <c r="J580" s="4"/>
+      <c r="J580" s="1"/>
     </row>
     <row r="581">
-      <c r="J581" s="4"/>
+      <c r="J581" s="1"/>
     </row>
     <row r="582">
-      <c r="J582" s="4"/>
+      <c r="J582" s="1"/>
     </row>
     <row r="583">
-      <c r="J583" s="4"/>
+      <c r="J583" s="1"/>
     </row>
     <row r="584">
-      <c r="J584" s="4"/>
+      <c r="J584" s="1"/>
     </row>
     <row r="585">
-      <c r="J585" s="4"/>
+      <c r="J585" s="1"/>
     </row>
     <row r="586">
-      <c r="J586" s="4"/>
+      <c r="J586" s="1"/>
     </row>
     <row r="587">
-      <c r="J587" s="4"/>
+      <c r="J587" s="1"/>
     </row>
     <row r="588">
-      <c r="J588" s="4"/>
+      <c r="J588" s="1"/>
     </row>
     <row r="589">
-      <c r="J589" s="4"/>
+      <c r="J589" s="1"/>
     </row>
     <row r="590">
-      <c r="J590" s="4"/>
+      <c r="J590" s="1"/>
     </row>
     <row r="591">
-      <c r="J591" s="4"/>
+      <c r="J591" s="1"/>
     </row>
     <row r="592">
-      <c r="J592" s="4"/>
+      <c r="J592" s="1"/>
     </row>
     <row r="593">
-      <c r="J593" s="4"/>
+      <c r="J593" s="1"/>
     </row>
     <row r="594">
-      <c r="J594" s="4"/>
+      <c r="J594" s="1"/>
     </row>
     <row r="595">
-      <c r="J595" s="4"/>
+      <c r="J595" s="1"/>
     </row>
     <row r="596">
-      <c r="J596" s="4"/>
+      <c r="J596" s="1"/>
     </row>
     <row r="597">
-      <c r="J597" s="4"/>
+      <c r="J597" s="1"/>
     </row>
     <row r="598">
-      <c r="J598" s="4"/>
+      <c r="J598" s="1"/>
     </row>
     <row r="599">
-      <c r="J599" s="4"/>
+      <c r="J599" s="1"/>
     </row>
     <row r="600">
-      <c r="J600" s="4"/>
+      <c r="J600" s="1"/>
     </row>
     <row r="601">
-      <c r="J601" s="4"/>
+      <c r="J601" s="1"/>
     </row>
     <row r="602">
-      <c r="J602" s="4"/>
+      <c r="J602" s="1"/>
     </row>
     <row r="603">
-      <c r="J603" s="4"/>
+      <c r="J603" s="1"/>
     </row>
     <row r="604">
-      <c r="J604" s="4"/>
+      <c r="J604" s="1"/>
     </row>
     <row r="605">
-      <c r="J605" s="4"/>
+      <c r="J605" s="1"/>
     </row>
     <row r="606">
-      <c r="J606" s="4"/>
+      <c r="J606" s="1"/>
     </row>
     <row r="607">
-      <c r="J607" s="4"/>
+      <c r="J607" s="1"/>
     </row>
     <row r="608">
-      <c r="J608" s="4"/>
+      <c r="J608" s="1"/>
     </row>
     <row r="609">
-      <c r="J609" s="4"/>
+      <c r="J609" s="1"/>
     </row>
     <row r="610">
-      <c r="J610" s="4"/>
+      <c r="J610" s="1"/>
     </row>
     <row r="611">
-      <c r="J611" s="4"/>
+      <c r="J611" s="1"/>
     </row>
     <row r="612">
-      <c r="J612" s="4"/>
+      <c r="J612" s="1"/>
     </row>
     <row r="613">
-      <c r="J613" s="4"/>
+      <c r="J613" s="1"/>
     </row>
     <row r="614">
-      <c r="J614" s="4"/>
+      <c r="J614" s="1"/>
     </row>
     <row r="615">
-      <c r="J615" s="4"/>
+      <c r="J615" s="1"/>
     </row>
     <row r="616">
-      <c r="J616" s="4"/>
+      <c r="J616" s="1"/>
     </row>
     <row r="617">
-      <c r="J617" s="4"/>
+      <c r="J617" s="1"/>
     </row>
     <row r="618">
-      <c r="J618" s="4"/>
+      <c r="J618" s="1"/>
     </row>
     <row r="619">
-      <c r="J619" s="4"/>
+      <c r="J619" s="1"/>
     </row>
     <row r="620">
-      <c r="J620" s="4"/>
+      <c r="J620" s="1"/>
     </row>
     <row r="621">
-      <c r="J621" s="4"/>
+      <c r="J621" s="1"/>
     </row>
     <row r="622">
-      <c r="J622" s="4"/>
+      <c r="J622" s="1"/>
     </row>
     <row r="623">
-      <c r="J623" s="4"/>
+      <c r="J623" s="1"/>
     </row>
     <row r="624">
-      <c r="J624" s="4"/>
+      <c r="J624" s="1"/>
     </row>
     <row r="625">
-      <c r="J625" s="4"/>
+      <c r="J625" s="1"/>
     </row>
     <row r="626">
-      <c r="J626" s="4"/>
+      <c r="J626" s="1"/>
     </row>
     <row r="627">
-      <c r="J627" s="4"/>
+      <c r="J627" s="1"/>
     </row>
     <row r="628">
-      <c r="J628" s="4"/>
+      <c r="J628" s="1"/>
     </row>
     <row r="629">
-      <c r="J629" s="4"/>
+      <c r="J629" s="1"/>
     </row>
     <row r="630">
-      <c r="J630" s="4"/>
+      <c r="J630" s="1"/>
     </row>
     <row r="631">
-      <c r="J631" s="4"/>
+      <c r="J631" s="1"/>
     </row>
     <row r="632">
-      <c r="J632" s="4"/>
+      <c r="J632" s="1"/>
     </row>
     <row r="633">
-      <c r="J633" s="4"/>
+      <c r="J633" s="1"/>
     </row>
     <row r="634">
-      <c r="J634" s="4"/>
+      <c r="J634" s="1"/>
     </row>
     <row r="635">
-      <c r="J635" s="4"/>
+      <c r="J635" s="1"/>
     </row>
     <row r="636">
-      <c r="J636" s="4"/>
+      <c r="J636" s="1"/>
     </row>
     <row r="637">
-      <c r="J637" s="4"/>
+      <c r="J637" s="1"/>
     </row>
     <row r="638">
-      <c r="J638" s="4"/>
+      <c r="J638" s="1"/>
     </row>
     <row r="639">
-      <c r="J639" s="4"/>
+      <c r="J639" s="1"/>
     </row>
     <row r="640">
-      <c r="J640" s="4"/>
+      <c r="J640" s="1"/>
     </row>
     <row r="641">
-      <c r="J641" s="4"/>
+      <c r="J641" s="1"/>
     </row>
     <row r="642">
-      <c r="J642" s="4"/>
+      <c r="J642" s="1"/>
     </row>
     <row r="643">
-      <c r="J643" s="4"/>
+      <c r="J643" s="1"/>
     </row>
     <row r="644">
-      <c r="J644" s="4"/>
+      <c r="J644" s="1"/>
     </row>
     <row r="645">
-      <c r="J645" s="4"/>
+      <c r="J645" s="1"/>
     </row>
     <row r="646">
-      <c r="J646" s="4"/>
+      <c r="J646" s="1"/>
     </row>
     <row r="647">
-      <c r="J647" s="4"/>
+      <c r="J647" s="1"/>
     </row>
     <row r="648">
-      <c r="J648" s="4"/>
+      <c r="J648" s="1"/>
     </row>
     <row r="649">
-      <c r="J649" s="4"/>
+      <c r="J649" s="1"/>
     </row>
     <row r="650">
-      <c r="J650" s="4"/>
+      <c r="J650" s="1"/>
     </row>
     <row r="651">
-      <c r="J651" s="4"/>
+      <c r="J651" s="1"/>
     </row>
     <row r="652">
-      <c r="J652" s="4"/>
+      <c r="J652" s="1"/>
     </row>
     <row r="653">
-      <c r="J653" s="4"/>
+      <c r="J653" s="1"/>
     </row>
     <row r="654">
-      <c r="J654" s="4"/>
+      <c r="J654" s="1"/>
     </row>
     <row r="655">
-      <c r="J655" s="4"/>
+      <c r="J655" s="1"/>
     </row>
     <row r="656">
-      <c r="J656" s="4"/>
+      <c r="J656" s="1"/>
     </row>
     <row r="657">
-      <c r="J657" s="4"/>
+      <c r="J657" s="1"/>
     </row>
     <row r="658">
-      <c r="J658" s="4"/>
+      <c r="J658" s="1"/>
     </row>
     <row r="659">
-      <c r="J659" s="4"/>
+      <c r="J659" s="1"/>
     </row>
     <row r="660">
-      <c r="J660" s="4"/>
+      <c r="J660" s="1"/>
     </row>
     <row r="661">
-      <c r="J661" s="4"/>
+      <c r="J661" s="1"/>
     </row>
     <row r="662">
-      <c r="J662" s="4"/>
+      <c r="J662" s="1"/>
     </row>
     <row r="663">
-      <c r="J663" s="4"/>
+      <c r="J663" s="1"/>
     </row>
     <row r="664">
-      <c r="J664" s="4"/>
+      <c r="J664" s="1"/>
     </row>
     <row r="665">
-      <c r="J665" s="4"/>
+      <c r="J665" s="1"/>
     </row>
     <row r="666">
-      <c r="J666" s="4"/>
+      <c r="J666" s="1"/>
     </row>
     <row r="667">
-      <c r="J667" s="4"/>
+      <c r="J667" s="1"/>
     </row>
     <row r="668">
-      <c r="J668" s="4"/>
+      <c r="J668" s="1"/>
     </row>
     <row r="669">
-      <c r="J669" s="4"/>
+      <c r="J669" s="1"/>
     </row>
     <row r="670">
-      <c r="J670" s="4"/>
+      <c r="J670" s="1"/>
     </row>
     <row r="671">
-      <c r="J671" s="4"/>
+      <c r="J671" s="1"/>
     </row>
     <row r="672">
-      <c r="J672" s="4"/>
+      <c r="J672" s="1"/>
     </row>
     <row r="673">
-      <c r="J673" s="4"/>
+      <c r="J673" s="1"/>
     </row>
     <row r="674">
-      <c r="J674" s="4"/>
+      <c r="J674" s="1"/>
     </row>
     <row r="675">
-      <c r="J675" s="4"/>
+      <c r="J675" s="1"/>
     </row>
     <row r="676">
-      <c r="J676" s="4"/>
+      <c r="J676" s="1"/>
     </row>
     <row r="677">
-      <c r="J677" s="4"/>
+      <c r="J677" s="1"/>
     </row>
     <row r="678">
-      <c r="J678" s="4"/>
+      <c r="J678" s="1"/>
     </row>
     <row r="679">
-      <c r="J679" s="4"/>
+      <c r="J679" s="1"/>
     </row>
     <row r="680">
-      <c r="J680" s="4"/>
+      <c r="J680" s="1"/>
     </row>
     <row r="681">
-      <c r="J681" s="4"/>
+      <c r="J681" s="1"/>
     </row>
     <row r="682">
-      <c r="J682" s="4"/>
+      <c r="J682" s="1"/>
     </row>
     <row r="683">
-      <c r="J683" s="4"/>
+      <c r="J683" s="1"/>
     </row>
     <row r="684">
-      <c r="J684" s="4"/>
+      <c r="J684" s="1"/>
     </row>
     <row r="685">
-      <c r="J685" s="4"/>
+      <c r="J685" s="1"/>
     </row>
     <row r="686">
-      <c r="J686" s="4"/>
+      <c r="J686" s="1"/>
     </row>
     <row r="687">
-      <c r="J687" s="4"/>
+      <c r="J687" s="1"/>
     </row>
     <row r="688">
-      <c r="J688" s="4"/>
+      <c r="J688" s="1"/>
     </row>
     <row r="689">
-      <c r="J689" s="4"/>
+      <c r="J689" s="1"/>
     </row>
     <row r="690">
-      <c r="J690" s="4"/>
+      <c r="J690" s="1"/>
     </row>
     <row r="691">
-      <c r="J691" s="4"/>
+      <c r="J691" s="1"/>
     </row>
     <row r="692">
-      <c r="J692" s="4"/>
+      <c r="J692" s="1"/>
     </row>
     <row r="693">
-      <c r="J693" s="4"/>
+      <c r="J693" s="1"/>
     </row>
     <row r="694">
-      <c r="J694" s="4"/>
+      <c r="J694" s="1"/>
     </row>
     <row r="695">
-      <c r="J695" s="4"/>
+      <c r="J695" s="1"/>
     </row>
     <row r="696">
-      <c r="J696" s="4"/>
+      <c r="J696" s="1"/>
     </row>
     <row r="697">
-      <c r="J697" s="4"/>
+      <c r="J697" s="1"/>
     </row>
     <row r="698">
-      <c r="J698" s="4"/>
+      <c r="J698" s="1"/>
     </row>
     <row r="699">
-      <c r="J699" s="4"/>
+      <c r="J699" s="1"/>
     </row>
     <row r="700">
-      <c r="J700" s="4"/>
+      <c r="J700" s="1"/>
     </row>
     <row r="701">
-      <c r="J701" s="4"/>
+      <c r="J701" s="1"/>
     </row>
     <row r="702">
-      <c r="J702" s="4"/>
+      <c r="J702" s="1"/>
     </row>
     <row r="703">
-      <c r="J703" s="4"/>
+      <c r="J703" s="1"/>
     </row>
     <row r="704">
-      <c r="J704" s="4"/>
+      <c r="J704" s="1"/>
     </row>
     <row r="705">
-      <c r="J705" s="4"/>
+      <c r="J705" s="1"/>
     </row>
     <row r="706">
-      <c r="J706" s="4"/>
+      <c r="J706" s="1"/>
     </row>
     <row r="707">
-      <c r="J707" s="4"/>
+      <c r="J707" s="1"/>
     </row>
     <row r="708">
-      <c r="J708" s="4"/>
+      <c r="J708" s="1"/>
     </row>
     <row r="709">
-      <c r="J709" s="4"/>
+      <c r="J709" s="1"/>
     </row>
     <row r="710">
-      <c r="J710" s="4"/>
+      <c r="J710" s="1"/>
     </row>
     <row r="711">
-      <c r="J711" s="4"/>
+      <c r="J711" s="1"/>
     </row>
     <row r="712">
-      <c r="J712" s="4"/>
+      <c r="J712" s="1"/>
     </row>
     <row r="713">
-      <c r="J713" s="4"/>
+      <c r="J713" s="1"/>
     </row>
     <row r="714">
-      <c r="J714" s="4"/>
+      <c r="J714" s="1"/>
     </row>
     <row r="715">
-      <c r="J715" s="4"/>
+      <c r="J715" s="1"/>
     </row>
     <row r="716">
-      <c r="J716" s="4"/>
+      <c r="J716" s="1"/>
     </row>
     <row r="717">
-      <c r="J717" s="4"/>
+      <c r="J717" s="1"/>
     </row>
     <row r="718">
-      <c r="J718" s="4"/>
+      <c r="J718" s="1"/>
     </row>
     <row r="719">
-      <c r="J719" s="4"/>
+      <c r="J719" s="1"/>
     </row>
     <row r="720">
-      <c r="J720" s="4"/>
+      <c r="J720" s="1"/>
     </row>
     <row r="721">
-      <c r="J721" s="4"/>
+      <c r="J721" s="1"/>
     </row>
     <row r="722">
-      <c r="J722" s="4"/>
+      <c r="J722" s="1"/>
     </row>
     <row r="723">
-      <c r="J723" s="4"/>
+      <c r="J723" s="1"/>
     </row>
     <row r="724">
-      <c r="J724" s="4"/>
+      <c r="J724" s="1"/>
     </row>
     <row r="725">
-      <c r="J725" s="4"/>
+      <c r="J725" s="1"/>
     </row>
     <row r="726">
-      <c r="J726" s="4"/>
+      <c r="J726" s="1"/>
     </row>
     <row r="727">
-      <c r="J727" s="4"/>
+      <c r="J727" s="1"/>
     </row>
     <row r="728">
-      <c r="J728" s="4"/>
+      <c r="J728" s="1"/>
     </row>
     <row r="729">
-      <c r="J729" s="4"/>
+      <c r="J729" s="1"/>
     </row>
     <row r="730">
-      <c r="J730" s="4"/>
+      <c r="J730" s="1"/>
     </row>
     <row r="731">
-      <c r="J731" s="4"/>
+      <c r="J731" s="1"/>
     </row>
     <row r="732">
-      <c r="J732" s="4"/>
+      <c r="J732" s="1"/>
     </row>
     <row r="733">
-      <c r="J733" s="4"/>
+      <c r="J733" s="1"/>
     </row>
     <row r="734">
-      <c r="J734" s="4"/>
+      <c r="J734" s="1"/>
     </row>
     <row r="735">
-      <c r="J735" s="4"/>
+      <c r="J735" s="1"/>
     </row>
     <row r="736">
-      <c r="J736" s="4"/>
+      <c r="J736" s="1"/>
     </row>
     <row r="737">
-      <c r="J737" s="4"/>
+      <c r="J737" s="1"/>
     </row>
     <row r="738">
-      <c r="J738" s="4"/>
+      <c r="J738" s="1"/>
     </row>
     <row r="739">
-      <c r="J739" s="4"/>
+      <c r="J739" s="1"/>
     </row>
     <row r="740">
-      <c r="J740" s="4"/>
+      <c r="J740" s="1"/>
     </row>
     <row r="741">
-      <c r="J741" s="4"/>
+      <c r="J741" s="1"/>
     </row>
     <row r="742">
-      <c r="J742" s="4"/>
+      <c r="J742" s="1"/>
     </row>
     <row r="743">
-      <c r="J743" s="4"/>
+      <c r="J743" s="1"/>
     </row>
     <row r="744">
-      <c r="J744" s="4"/>
+      <c r="J744" s="1"/>
     </row>
     <row r="745">
-      <c r="J745" s="4"/>
+      <c r="J745" s="1"/>
     </row>
     <row r="746">
-      <c r="J746" s="4"/>
+      <c r="J746" s="1"/>
     </row>
     <row r="747">
-      <c r="J747" s="4"/>
+      <c r="J747" s="1"/>
     </row>
     <row r="748">
-      <c r="J748" s="4"/>
+      <c r="J748" s="1"/>
     </row>
     <row r="749">
-      <c r="J749" s="4"/>
+      <c r="J749" s="1"/>
     </row>
     <row r="750">
-      <c r="J750" s="4"/>
+      <c r="J750" s="1"/>
     </row>
     <row r="751">
-      <c r="J751" s="4"/>
+      <c r="J751" s="1"/>
     </row>
     <row r="752">
-      <c r="J752" s="4"/>
+      <c r="J752" s="1"/>
     </row>
     <row r="753">
-      <c r="J753" s="4"/>
+      <c r="J753" s="1"/>
     </row>
     <row r="754">
-      <c r="J754" s="4"/>
+      <c r="J754" s="1"/>
     </row>
     <row r="755">
-      <c r="J755" s="4"/>
+      <c r="J755" s="1"/>
     </row>
     <row r="756">
-      <c r="J756" s="4"/>
+      <c r="J756" s="1"/>
     </row>
     <row r="757">
-      <c r="J757" s="4"/>
+      <c r="J757" s="1"/>
     </row>
     <row r="758">
-      <c r="J758" s="4"/>
+      <c r="J758" s="1"/>
     </row>
     <row r="759">
-      <c r="J759" s="4"/>
+      <c r="J759" s="1"/>
     </row>
     <row r="760">
-      <c r="J760" s="4"/>
+      <c r="J760" s="1"/>
     </row>
     <row r="761">
-      <c r="J761" s="4"/>
+      <c r="J761" s="1"/>
     </row>
     <row r="762">
-      <c r="J762" s="4"/>
+      <c r="J762" s="1"/>
     </row>
     <row r="763">
-      <c r="J763" s="4"/>
+      <c r="J763" s="1"/>
     </row>
     <row r="764">
-      <c r="J764" s="4"/>
+      <c r="J764" s="1"/>
     </row>
     <row r="765">
-      <c r="J765" s="4"/>
+      <c r="J765" s="1"/>
     </row>
     <row r="766">
-      <c r="J766" s="4"/>
+      <c r="J766" s="1"/>
     </row>
     <row r="767">
-      <c r="J767" s="4"/>
+      <c r="J767" s="1"/>
     </row>
     <row r="768">
-      <c r="J768" s="4"/>
+      <c r="J768" s="1"/>
     </row>
     <row r="769">
-      <c r="J769" s="4"/>
+      <c r="J769" s="1"/>
     </row>
     <row r="770">
-      <c r="J770" s="4"/>
+      <c r="J770" s="1"/>
     </row>
     <row r="771">
-      <c r="J771" s="4"/>
+      <c r="J771" s="1"/>
     </row>
     <row r="772">
-      <c r="J772" s="4"/>
+      <c r="J772" s="1"/>
     </row>
     <row r="773">
-      <c r="J773" s="4"/>
+      <c r="J773" s="1"/>
     </row>
     <row r="774">
-      <c r="J774" s="4"/>
+      <c r="J774" s="1"/>
     </row>
     <row r="775">
-      <c r="J775" s="4"/>
+      <c r="J775" s="1"/>
     </row>
     <row r="776">
-      <c r="J776" s="4"/>
+      <c r="J776" s="1"/>
     </row>
     <row r="777">
-      <c r="J777" s="4"/>
+      <c r="J777" s="1"/>
     </row>
     <row r="778">
-      <c r="J778" s="4"/>
+      <c r="J778" s="1"/>
     </row>
     <row r="779">
-      <c r="J779" s="4"/>
+      <c r="J779" s="1"/>
     </row>
     <row r="780">
-      <c r="J780" s="4"/>
+      <c r="J780" s="1"/>
     </row>
     <row r="781">
-      <c r="J781" s="4"/>
+      <c r="J781" s="1"/>
     </row>
     <row r="782">
-      <c r="J782" s="4"/>
+      <c r="J782" s="1"/>
     </row>
     <row r="783">
-      <c r="J783" s="4"/>
+      <c r="J783" s="1"/>
     </row>
     <row r="784">
-      <c r="J784" s="4"/>
+      <c r="J784" s="1"/>
     </row>
     <row r="785">
-      <c r="J785" s="4"/>
+      <c r="J785" s="1"/>
     </row>
     <row r="786">
-      <c r="J786" s="4"/>
+      <c r="J786" s="1"/>
     </row>
     <row r="787">
-      <c r="J787" s="4"/>
+      <c r="J787" s="1"/>
     </row>
     <row r="788">
-      <c r="J788" s="4"/>
+      <c r="J788" s="1"/>
     </row>
     <row r="789">
-      <c r="J789" s="4"/>
+      <c r="J789" s="1"/>
     </row>
     <row r="790">
-      <c r="J790" s="4"/>
+      <c r="J790" s="1"/>
     </row>
     <row r="791">
-      <c r="J791" s="4"/>
+      <c r="J791" s="1"/>
     </row>
     <row r="792">
-      <c r="J792" s="4"/>
+      <c r="J792" s="1"/>
     </row>
     <row r="793">
-      <c r="J793" s="4"/>
+      <c r="J793" s="1"/>
     </row>
     <row r="794">
-      <c r="J794" s="4"/>
+      <c r="J794" s="1"/>
     </row>
     <row r="795">
-      <c r="J795" s="4"/>
+      <c r="J795" s="1"/>
     </row>
     <row r="796">
-      <c r="J796" s="4"/>
+      <c r="J796" s="1"/>
     </row>
     <row r="797">
-      <c r="J797" s="4"/>
+      <c r="J797" s="1"/>
     </row>
     <row r="798">
-      <c r="J798" s="4"/>
+      <c r="J798" s="1"/>
     </row>
     <row r="799">
-      <c r="J799" s="4"/>
+      <c r="J799" s="1"/>
     </row>
     <row r="800">
-      <c r="J800" s="4"/>
+      <c r="J800" s="1"/>
     </row>
     <row r="801">
-      <c r="J801" s="4"/>
+      <c r="J801" s="1"/>
     </row>
     <row r="802">
-      <c r="J802" s="4"/>
+      <c r="J802" s="1"/>
     </row>
     <row r="803">
-      <c r="J803" s="4"/>
+      <c r="J803" s="1"/>
     </row>
     <row r="804">
-      <c r="J804" s="4"/>
+      <c r="J804" s="1"/>
     </row>
     <row r="805">
-      <c r="J805" s="4"/>
+      <c r="J805" s="1"/>
     </row>
     <row r="806">
-      <c r="J806" s="4"/>
+      <c r="J806" s="1"/>
     </row>
     <row r="807">
-      <c r="J807" s="4"/>
+      <c r="J807" s="1"/>
     </row>
     <row r="808">
-      <c r="J808" s="4"/>
+      <c r="J808" s="1"/>
     </row>
     <row r="809">
-      <c r="J809" s="4"/>
+      <c r="J809" s="1"/>
     </row>
     <row r="810">
-      <c r="J810" s="4"/>
+      <c r="J810" s="1"/>
     </row>
     <row r="811">
-      <c r="J811" s="4"/>
+      <c r="J811" s="1"/>
     </row>
     <row r="812">
-      <c r="J812" s="4"/>
+      <c r="J812" s="1"/>
     </row>
     <row r="813">
-      <c r="J813" s="4"/>
+      <c r="J813" s="1"/>
     </row>
     <row r="814">
-      <c r="J814" s="4"/>
+      <c r="J814" s="1"/>
     </row>
     <row r="815">
-      <c r="J815" s="4"/>
+      <c r="J815" s="1"/>
     </row>
     <row r="816">
-      <c r="J816" s="4"/>
+      <c r="J816" s="1"/>
     </row>
     <row r="817">
-      <c r="J817" s="4"/>
+      <c r="J817" s="1"/>
     </row>
     <row r="818">
-      <c r="J818" s="4"/>
+      <c r="J818" s="1"/>
     </row>
     <row r="819">
-      <c r="J819" s="4"/>
+      <c r="J819" s="1"/>
     </row>
     <row r="820">
-      <c r="J820" s="4"/>
+      <c r="J820" s="1"/>
     </row>
     <row r="821">
-      <c r="J821" s="4"/>
+      <c r="J821" s="1"/>
     </row>
     <row r="822">
-      <c r="J822" s="4"/>
+      <c r="J822" s="1"/>
     </row>
     <row r="823">
-      <c r="J823" s="4"/>
+      <c r="J823" s="1"/>
     </row>
     <row r="824">
-      <c r="J824" s="4"/>
+      <c r="J824" s="1"/>
     </row>
     <row r="825">
-      <c r="J825" s="4"/>
+      <c r="J825" s="1"/>
     </row>
     <row r="826">
-      <c r="J826" s="4"/>
+      <c r="J826" s="1"/>
     </row>
     <row r="827">
-      <c r="J827" s="4"/>
+      <c r="J827" s="1"/>
     </row>
     <row r="828">
-      <c r="J828" s="4"/>
+      <c r="J828" s="1"/>
     </row>
     <row r="829">
-      <c r="J829" s="4"/>
+      <c r="J829" s="1"/>
     </row>
     <row r="830">
-      <c r="J830" s="4"/>
+      <c r="J830" s="1"/>
     </row>
     <row r="831">
-      <c r="J831" s="4"/>
+      <c r="J831" s="1"/>
     </row>
     <row r="832">
-      <c r="J832" s="4"/>
+      <c r="J832" s="1"/>
     </row>
     <row r="833">
-      <c r="J833" s="4"/>
+      <c r="J833" s="1"/>
     </row>
     <row r="834">
-      <c r="J834" s="4"/>
+      <c r="J834" s="1"/>
     </row>
     <row r="835">
-      <c r="J835" s="4"/>
+      <c r="J835" s="1"/>
     </row>
     <row r="836">
-      <c r="J836" s="4"/>
+      <c r="J836" s="1"/>
     </row>
     <row r="837">
-      <c r="J837" s="4"/>
+      <c r="J837" s="1"/>
     </row>
     <row r="838">
-      <c r="J838" s="4"/>
+      <c r="J838" s="1"/>
     </row>
     <row r="839">
-      <c r="J839" s="4"/>
+      <c r="J839" s="1"/>
     </row>
     <row r="840">
-      <c r="J840" s="4"/>
+      <c r="J840" s="1"/>
     </row>
     <row r="841">
-      <c r="J841" s="4"/>
+      <c r="J841" s="1"/>
     </row>
     <row r="842">
-      <c r="J842" s="4"/>
+      <c r="J842" s="1"/>
     </row>
     <row r="843">
-      <c r="J843" s="4"/>
+      <c r="J843" s="1"/>
     </row>
     <row r="844">
-      <c r="J844" s="4"/>
+      <c r="J844" s="1"/>
     </row>
     <row r="845">
-      <c r="J845" s="4"/>
+      <c r="J845" s="1"/>
     </row>
     <row r="846">
-      <c r="J846" s="4"/>
+      <c r="J846" s="1"/>
     </row>
     <row r="847">
-      <c r="J847" s="4"/>
+      <c r="J847" s="1"/>
     </row>
     <row r="848">
-      <c r="J848" s="4"/>
+      <c r="J848" s="1"/>
     </row>
     <row r="849">
-      <c r="J849" s="4"/>
+      <c r="J849" s="1"/>
     </row>
     <row r="850">
-      <c r="J850" s="4"/>
+      <c r="J850" s="1"/>
     </row>
     <row r="851">
-      <c r="J851" s="4"/>
+      <c r="J851" s="1"/>
     </row>
     <row r="852">
-      <c r="J852" s="4"/>
+      <c r="J852" s="1"/>
     </row>
     <row r="853">
-      <c r="J853" s="4"/>
+      <c r="J853" s="1"/>
     </row>
     <row r="854">
-      <c r="J854" s="4"/>
+      <c r="J854" s="1"/>
     </row>
     <row r="855">
-      <c r="J855" s="4"/>
+      <c r="J855" s="1"/>
     </row>
     <row r="856">
-      <c r="J856" s="4"/>
+      <c r="J856" s="1"/>
     </row>
     <row r="857">
-      <c r="J857" s="4"/>
+      <c r="J857" s="1"/>
     </row>
     <row r="858">
-      <c r="J858" s="4"/>
+      <c r="J858" s="1"/>
     </row>
     <row r="859">
-      <c r="J859" s="4"/>
+      <c r="J859" s="1"/>
     </row>
     <row r="860">
-      <c r="J860" s="4"/>
+      <c r="J860" s="1"/>
     </row>
     <row r="861">
-      <c r="J861" s="4"/>
+      <c r="J861" s="1"/>
     </row>
     <row r="862">
-      <c r="J862" s="4"/>
+      <c r="J862" s="1"/>
     </row>
     <row r="863">
-      <c r="J863" s="4"/>
+      <c r="J863" s="1"/>
     </row>
     <row r="864">
-      <c r="J864" s="4"/>
+      <c r="J864" s="1"/>
     </row>
     <row r="865">
-      <c r="J865" s="4"/>
+      <c r="J865" s="1"/>
     </row>
     <row r="866">
-      <c r="J866" s="4"/>
+      <c r="J866" s="1"/>
     </row>
     <row r="867">
-      <c r="J867" s="4"/>
+      <c r="J867" s="1"/>
     </row>
     <row r="868">
-      <c r="J868" s="4"/>
+      <c r="J868" s="1"/>
     </row>
     <row r="869">
-      <c r="J869" s="4"/>
+      <c r="J869" s="1"/>
     </row>
     <row r="870">
-      <c r="J870" s="4"/>
+      <c r="J870" s="1"/>
     </row>
     <row r="871">
-      <c r="J871" s="4"/>
+      <c r="J871" s="1"/>
     </row>
     <row r="872">
-      <c r="J872" s="4"/>
+      <c r="J872" s="1"/>
     </row>
     <row r="873">
-      <c r="J873" s="4"/>
+      <c r="J873" s="1"/>
     </row>
     <row r="874">
-      <c r="J874" s="4"/>
+      <c r="J874" s="1"/>
     </row>
     <row r="875">
-      <c r="J875" s="4"/>
+      <c r="J875" s="1"/>
     </row>
     <row r="876">
-      <c r="J876" s="4"/>
+      <c r="J876" s="1"/>
     </row>
     <row r="877">
-      <c r="J877" s="4"/>
+      <c r="J877" s="1"/>
     </row>
     <row r="878">
-      <c r="J878" s="4"/>
+      <c r="J878" s="1"/>
     </row>
     <row r="879">
-      <c r="J879" s="4"/>
+      <c r="J879" s="1"/>
     </row>
     <row r="880">
-      <c r="J880" s="4"/>
+      <c r="J880" s="1"/>
     </row>
     <row r="881">
-      <c r="J881" s="4"/>
+      <c r="J881" s="1"/>
     </row>
     <row r="882">
-      <c r="J882" s="4"/>
+      <c r="J882" s="1"/>
     </row>
     <row r="883">
-      <c r="J883" s="4"/>
+      <c r="J883" s="1"/>
     </row>
     <row r="884">
-      <c r="J884" s="4"/>
+      <c r="J884" s="1"/>
     </row>
     <row r="885">
-      <c r="J885" s="4"/>
+      <c r="J885" s="1"/>
     </row>
     <row r="886">
-      <c r="J886" s="4"/>
+      <c r="J886" s="1"/>
     </row>
     <row r="887">
-      <c r="J887" s="4"/>
+      <c r="J887" s="1"/>
     </row>
     <row r="888">
-      <c r="J888" s="4"/>
+      <c r="J888" s="1"/>
     </row>
     <row r="889">
-      <c r="J889" s="4"/>
+      <c r="J889" s="1"/>
     </row>
     <row r="890">
-      <c r="J890" s="4"/>
+      <c r="J890" s="1"/>
     </row>
     <row r="891">
-      <c r="J891" s="4"/>
+      <c r="J891" s="1"/>
     </row>
     <row r="892">
-      <c r="J892" s="4"/>
+      <c r="J892" s="1"/>
     </row>
     <row r="893">
-      <c r="J893" s="4"/>
+      <c r="J893" s="1"/>
     </row>
     <row r="894">
-      <c r="J894" s="4"/>
+      <c r="J894" s="1"/>
     </row>
     <row r="895">
-      <c r="J895" s="4"/>
+      <c r="J895" s="1"/>
     </row>
     <row r="896">
-      <c r="J896" s="4"/>
+      <c r="J896" s="1"/>
     </row>
     <row r="897">
-      <c r="J897" s="4"/>
+      <c r="J897" s="1"/>
     </row>
     <row r="898">
-      <c r="J898" s="4"/>
+      <c r="J898" s="1"/>
     </row>
     <row r="899">
-      <c r="J899" s="4"/>
+      <c r="J899" s="1"/>
     </row>
     <row r="900">
-      <c r="J900" s="4"/>
+      <c r="J900" s="1"/>
     </row>
     <row r="901">
-      <c r="J901" s="4"/>
+      <c r="J901" s="1"/>
     </row>
     <row r="902">
-      <c r="J902" s="4"/>
+      <c r="J902" s="1"/>
     </row>
     <row r="903">
-      <c r="J903" s="4"/>
+      <c r="J903" s="1"/>
     </row>
     <row r="904">
-      <c r="J904" s="4"/>
+      <c r="J904" s="1"/>
     </row>
     <row r="905">
-      <c r="J905" s="4"/>
+      <c r="J905" s="1"/>
     </row>
     <row r="906">
-      <c r="J906" s="4"/>
+      <c r="J906" s="1"/>
     </row>
     <row r="907">
-      <c r="J907" s="4"/>
+      <c r="J907" s="1"/>
     </row>
     <row r="908">
-      <c r="J908" s="4"/>
+      <c r="J908" s="1"/>
     </row>
     <row r="909">
-      <c r="J909" s="4"/>
+      <c r="J909" s="1"/>
     </row>
     <row r="910">
-      <c r="J910" s="4"/>
+      <c r="J910" s="1"/>
     </row>
     <row r="911">
-      <c r="J911" s="4"/>
+      <c r="J911" s="1"/>
     </row>
     <row r="912">
-      <c r="J912" s="4"/>
+      <c r="J912" s="1"/>
     </row>
     <row r="913">
-      <c r="J913" s="4"/>
+      <c r="J913" s="1"/>
     </row>
     <row r="914">
-      <c r="J914" s="4"/>
+      <c r="J914" s="1"/>
     </row>
     <row r="915">
-      <c r="J915" s="4"/>
+      <c r="J915" s="1"/>
     </row>
     <row r="916">
-      <c r="J916" s="4"/>
+      <c r="J916" s="1"/>
     </row>
     <row r="917">
-      <c r="J917" s="4"/>
+      <c r="J917" s="1"/>
     </row>
     <row r="918">
-      <c r="J918" s="4"/>
+      <c r="J918" s="1"/>
     </row>
     <row r="919">
-      <c r="J919" s="4"/>
+      <c r="J919" s="1"/>
     </row>
     <row r="920">
-      <c r="J920" s="4"/>
+      <c r="J920" s="1"/>
     </row>
     <row r="921">
-      <c r="J921" s="4"/>
+      <c r="J921" s="1"/>
     </row>
     <row r="922">
-      <c r="J922" s="4"/>
+      <c r="J922" s="1"/>
     </row>
     <row r="923">
-      <c r="J923" s="4"/>
+      <c r="J923" s="1"/>
     </row>
     <row r="924">
-      <c r="J924" s="4"/>
+      <c r="J924" s="1"/>
     </row>
     <row r="925">
-      <c r="J925" s="4"/>
+      <c r="J925" s="1"/>
     </row>
     <row r="926">
-      <c r="J926" s="4"/>
+      <c r="J926" s="1"/>
     </row>
     <row r="927">
-      <c r="J927" s="4"/>
+      <c r="J927" s="1"/>
     </row>
     <row r="928">
-      <c r="J928" s="4"/>
+      <c r="J928" s="1"/>
     </row>
     <row r="929">
-      <c r="J929" s="4"/>
+      <c r="J929" s="1"/>
     </row>
     <row r="930">
-      <c r="J930" s="4"/>
+      <c r="J930" s="1"/>
     </row>
     <row r="931">
-      <c r="J931" s="4"/>
+      <c r="J931" s="1"/>
     </row>
     <row r="932">
-      <c r="J932" s="4"/>
+      <c r="J932" s="1"/>
     </row>
     <row r="933">
-      <c r="J933" s="4"/>
+      <c r="J933" s="1"/>
     </row>
     <row r="934">
-      <c r="J934" s="4"/>
+      <c r="J934" s="1"/>
     </row>
     <row r="935">
-      <c r="J935" s="4"/>
+      <c r="J935" s="1"/>
     </row>
     <row r="936">
-      <c r="J936" s="4"/>
+      <c r="J936" s="1"/>
     </row>
     <row r="937">
-      <c r="J937" s="4"/>
+      <c r="J937" s="1"/>
     </row>
     <row r="938">
-      <c r="J938" s="4"/>
+      <c r="J938" s="1"/>
     </row>
     <row r="939">
-      <c r="J939" s="4"/>
+      <c r="J939" s="1"/>
     </row>
     <row r="940">
-      <c r="J940" s="4"/>
+      <c r="J940" s="1"/>
     </row>
     <row r="941">
-      <c r="J941" s="4"/>
+      <c r="J941" s="1"/>
     </row>
     <row r="942">
-      <c r="J942" s="4"/>
+      <c r="J942" s="1"/>
     </row>
     <row r="943">
-      <c r="J943" s="4"/>
+      <c r="J943" s="1"/>
     </row>
     <row r="944">
-      <c r="J944" s="4"/>
+      <c r="J944" s="1"/>
     </row>
     <row r="945">
-      <c r="J945" s="4"/>
+      <c r="J945" s="1"/>
     </row>
     <row r="946">
-      <c r="J946" s="4"/>
+      <c r="J946" s="1"/>
     </row>
     <row r="947">
-      <c r="J947" s="4"/>
+      <c r="J947" s="1"/>
     </row>
     <row r="948">
-      <c r="J948" s="4"/>
+      <c r="J948" s="1"/>
     </row>
     <row r="949">
-      <c r="J949" s="4"/>
+      <c r="J949" s="1"/>
     </row>
     <row r="950">
-      <c r="J950" s="4"/>
+      <c r="J950" s="1"/>
     </row>
     <row r="951">
-      <c r="J951" s="4"/>
+      <c r="J951" s="1"/>
     </row>
     <row r="952">
-      <c r="J952" s="4"/>
+      <c r="J952" s="1"/>
     </row>
     <row r="953">
-      <c r="J953" s="4"/>
+      <c r="J953" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3621,6 +3773,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3638,59 +3793,59 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3700,6 +3855,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3711,20 +3869,267 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>38</v>
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.14"/>
+    <col customWidth="1" min="2" max="2" width="35.86"/>
+    <col customWidth="1" min="4" max="4" width="20.29"/>
+    <col customWidth="1" min="6" max="6" width="32.57"/>
+    <col customWidth="1" min="7" max="7" width="36.71"/>
+    <col customWidth="1" min="8" max="8" width="8.0"/>
+    <col customWidth="1" min="10" max="10" width="9.29"/>
+    <col customWidth="1" min="11" max="11" width="21.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.43"/>
+    <col customWidth="1" min="2" max="2" width="7.14"/>
+    <col customWidth="1" min="6" max="6" width="21.14"/>
+    <col customWidth="1" min="7" max="7" width="8.57"/>
+    <col customWidth="1" min="8" max="8" width="7.43"/>
+    <col customWidth="1" min="9" max="9" width="15.86"/>
+    <col customWidth="1" min="10" max="10" width="8.29"/>
+    <col customWidth="1" min="11" max="11" width="11.29"/>
+    <col customWidth="1" min="12" max="12" width="7.43"/>
+    <col customWidth="1" min="13" max="13" width="8.57"/>
+    <col customWidth="1" min="14" max="14" width="9.86"/>
+    <col customWidth="1" min="15" max="15" width="10.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:L2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O4:O154">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Si">
+      <formula>NOT(ISERROR(SEARCH(("Si"),(O4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O154">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH(("No"),(O4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
+++ b/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Instrucciones" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Matriz de Trazabilidad" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Diagrama de Trazabilidad" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Acceptance Criteria" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Acceptance Criteria y casos de " sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Bitácora de Modificaciones" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="Modificación de Requerimientos" sheetId="6" r:id="rId8"/>
   </sheets>
@@ -16,18 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
-  <si>
-    <t>Version 2.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+  <si>
+    <t>Version 2.1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Proyecto: </t>
   </si>
   <si>
     <t>Guía de llenado</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Proyecto: </t>
+    <t>CASOS DE USO</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Diseñado</t>
+  </si>
+  <si>
+    <t>Implementado</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Autorizado</t>
+  </si>
+  <si>
+    <t>Operando</t>
+  </si>
+  <si>
+    <t>[Nombre de caso de uso]</t>
+  </si>
+  <si>
+    <t>(Si/No)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción del Proyecto: </t>
   </si>
   <si>
     <t>Acceptance Criteria</t>
@@ -36,36 +72,12 @@
     <t>ID: Un ID único que se utiliza para identificar el objeto de trazabilidad en la matríz de trazabilidad de requerimientos.</t>
   </si>
   <si>
-    <t>CASOS DE USO</t>
-  </si>
-  <si>
-    <t>Análisis</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Diseñado</t>
-  </si>
-  <si>
-    <t>Implementado</t>
-  </si>
-  <si>
-    <t>Pruebas</t>
-  </si>
-  <si>
-    <t>Autorizado</t>
-  </si>
-  <si>
-    <t>Operando</t>
-  </si>
-  <si>
-    <t>[Nombre de caso de uso]</t>
-  </si>
-  <si>
     <t>ID US</t>
   </si>
   <si>
+    <t>Requerimiento Funcional</t>
+  </si>
+  <si>
     <t>Id del requerimiento</t>
   </si>
   <si>
@@ -81,127 +93,151 @@
     <t>RF ID: El ID del requerimiento funcional.</t>
   </si>
   <si>
-    <t>ID AC</t>
-  </si>
-  <si>
-    <t>Id del Acceptance Criteria con formato (IDUS.IDAC)</t>
+    <t>RF ID</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>Descripción del acceptance criteria(condiciones para que la historia de usuario sea aceptada por el stakeholder)</t>
+  </si>
+  <si>
+    <t>Dependencias</t>
   </si>
   <si>
     <t>Estatus: El estatus actual del requerimiento funcional.(Ver diagrama trazabilidad)</t>
   </si>
   <si>
-    <t>Descripción del acceptance criteria</t>
+    <t>Componente de Sistema</t>
+  </si>
+  <si>
+    <t>ID TC</t>
+  </si>
+  <si>
+    <t>Id del caso d eprueba conformato (IDUS.IDTC)</t>
   </si>
   <si>
     <t>Dependencias del requerimiento funcional (ID de las dependencias)</t>
   </si>
   <si>
-    <t>(Si/No)</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>ID Criterio de Aceptación</t>
+  </si>
+  <si>
+    <t>ID Defecto</t>
   </si>
   <si>
     <t>1,3,10,45</t>
   </si>
   <si>
+    <t>Descripción del caso de prueba</t>
+  </si>
+  <si>
+    <t>Descripcion de como se comportará la parte del sistema que se está probando con las variables que se introducirán(ya sean valores o acciones)</t>
+  </si>
+  <si>
     <t>ID(s) Componentes del Sistema: Los ID(s) del componente del sistema o item de trabajo donde se encuentra este requerimiento funcional.</t>
   </si>
   <si>
     <t>Cadhu/propsectos/views.py</t>
   </si>
   <si>
+    <t>Datos de prueba</t>
+  </si>
+  <si>
+    <t>Variables que se utilizaron para la prueba</t>
+  </si>
+  <si>
     <t>ID Criterio de Aceptación: El ID del criterio de aceptación asignado al requerimiento.</t>
   </si>
   <si>
     <t>1-N</t>
   </si>
   <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Resultado que se espera obtener con la prueba</t>
+  </si>
+  <si>
     <t>Defectos: El ID de los defectos encontrados en este requerimiento.</t>
   </si>
   <si>
+    <t>Resultado obtenido</t>
+  </si>
+  <si>
+    <t>Resultado obtenido con la prueba</t>
+  </si>
+  <si>
     <t>Version del requerimiento</t>
   </si>
   <si>
+    <t>Versión</t>
+  </si>
+  <si>
     <t>1.0   2.2 etc</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>ID Modulo de Software</t>
+  </si>
+  <si>
+    <t>Fecha en la que se realizó la prueba</t>
+  </si>
+  <si>
     <t>ID(s) Módulo de Software: El ID del módulo de software al que pertenece este requisito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripción del Proyecto: </t>
-  </si>
-  <si>
-    <t>Requerimiento Funcional</t>
-  </si>
-  <si>
-    <t>RF ID</t>
-  </si>
-  <si>
-    <t>Estatus</t>
-  </si>
-  <si>
-    <t>Dependencias</t>
-  </si>
-  <si>
-    <t>Componente de Sistema</t>
-  </si>
-  <si>
-    <t>ID Criterio de Aceptación</t>
-  </si>
-  <si>
-    <t>ID Defecto</t>
-  </si>
-  <si>
-    <t>Versión</t>
-  </si>
-  <si>
-    <t>ID Modulo de Software</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
-    <t>Acceptance Criteria Definition</t>
-  </si>
-  <si>
     <t>Como usuario registrado, me gustaría poder iniciar sesión en el sistema para poder ingresar al sistema.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Acceptance criteria</t>
+  </si>
+  <si>
+    <t>ID_TC</t>
+  </si>
+  <si>
+    <t>Definición de caso de prueba</t>
+  </si>
+  <si>
     <t>RF_ID</t>
   </si>
   <si>
+    <t>Requerimiento base</t>
+  </si>
+  <si>
+    <t>Fecha de Implmentación</t>
+  </si>
+  <si>
+    <t>Nombre del cambio</t>
+  </si>
+  <si>
+    <t>Descripción del cambio</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Requerimiento final</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Validado</t>
+  </si>
+  <si>
+    <t>Fecha de validación</t>
+  </si>
+  <si>
     <t>Planeación</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Requerimiento base</t>
-  </si>
-  <si>
-    <t>Fecha de Implmentación</t>
-  </si>
-  <si>
-    <t>Nombre del cambio</t>
-  </si>
-  <si>
-    <t>Descripción del cambio</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Requerimiento final</t>
-  </si>
-  <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>Validado</t>
-  </si>
-  <si>
-    <t>Fecha de validación</t>
   </si>
   <si>
     <t>CADHU/CADHU/urls.py</t>
@@ -309,12 +345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
@@ -323,6 +353,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -368,9 +404,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -382,6 +415,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -441,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -451,40 +487,40 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -492,11 +528,17 @@
     <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -504,26 +546,26 @@
     <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -561,7 +603,7 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,7 +671,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="63.29"/>
     <col customWidth="1" min="6" max="6" width="23.29"/>
-    <col customWidth="1" min="7" max="7" width="25.14"/>
+    <col customWidth="1" min="7" max="7" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,119 +680,185 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13">
         <v>1.0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="G5" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13">
         <v>1.0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
+      <c r="F6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
+      <c r="B7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
+      <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
+      <c r="B11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13">
       <c r="C13" s="1"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -786,148 +894,148 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3">
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5">
-      <c r="B5" s="15" t="s">
-        <v>2</v>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="24">
+      <c r="B6" s="25">
         <v>1.0</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="C6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="30">
         <v>1.0</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="25">
+      <c r="E6" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="27">
         <v>1.0</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33">
+      <c r="L6" s="34"/>
+      <c r="M6" s="35">
         <v>1.0</v>
       </c>
-      <c r="N6" s="30" t="s">
-        <v>66</v>
+      <c r="N6" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="J7" s="1"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="34">
+      <c r="L7" s="34"/>
+      <c r="M7" s="36">
         <v>2.0</v>
       </c>
-      <c r="N7" s="30" t="s">
-        <v>67</v>
+      <c r="N7" s="32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="J8" s="1"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="35">
+      <c r="L8" s="34"/>
+      <c r="M8" s="37">
         <v>3.0</v>
       </c>
-      <c r="N8" s="30" t="s">
-        <v>68</v>
+      <c r="N8" s="32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="1"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="36">
+      <c r="L9" s="34"/>
+      <c r="M9" s="38">
         <v>4.0</v>
       </c>
-      <c r="N9" s="30" t="s">
-        <v>69</v>
+      <c r="N9" s="32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -3794,58 +3902,58 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3865,21 +3973,37 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.86"/>
     <col customWidth="1" min="2" max="2" width="52.29"/>
-    <col customWidth="1" min="4" max="4" width="66.57"/>
+    <col customWidth="1" min="3" max="3" width="66.57"/>
+    <col customWidth="1" min="5" max="5" width="30.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>48</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3908,51 +4032,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3985,136 +4109,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
     </row>
     <row r="2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
+++ b/Requerimientos/Formatos/Matriz de Trazabilidad.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Instrucciones" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Matriz de Trazabilidad" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Diagrama de Trazabilidad" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Acceptance Criteria" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Acceptance Criteria y casos de " sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Bitácora de Modificaciones" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="Modificación de Requerimientos" sheetId="6" r:id="rId8"/>
   </sheets>
@@ -16,20 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
-  <si>
-    <t>Version 2.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+  <si>
+    <t>Version 2.1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Proyecto: </t>
   </si>
   <si>
     <t>Guía de llenado</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Proyecto: </t>
-  </si>
-  <si>
     <t>Acceptance Criteria</t>
   </si>
   <si>
@@ -63,13 +63,19 @@
     <t>[Nombre de caso de uso]</t>
   </si>
   <si>
+    <t>(Si/No)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>ID US</t>
   </si>
   <si>
     <t>Id del requerimiento</t>
   </si>
   <si>
-    <t>Requerimiento Funcional: La descripión del requerimiento funcional.</t>
+    <t>Requerimiento Funcional: La descripción del requerimiento funcional.</t>
   </si>
   <si>
     <t>Requerimiento</t>
@@ -81,57 +87,81 @@
     <t>RF ID: El ID del requerimiento funcional.</t>
   </si>
   <si>
-    <t>ID AC</t>
-  </si>
-  <si>
-    <t>Id del Acceptance Criteria con formato (IDUS.IDAC)</t>
+    <t xml:space="preserve">Descripción del Proyecto: </t>
+  </si>
+  <si>
+    <t>Descripción del acceptance criteria(condiciones para que la historia de usuario sea aceptada por el stakeholder)</t>
   </si>
   <si>
     <t>Estatus: El estatus actual del requerimiento funcional.(Ver diagrama trazabilidad)</t>
   </si>
   <si>
-    <t>Descripción del acceptance criteria</t>
+    <t>ID TC</t>
+  </si>
+  <si>
+    <t>Id del caso de prueba con formato (IDUS.IDTC)</t>
   </si>
   <si>
     <t>Dependencias del requerimiento funcional (ID de las dependencias)</t>
   </si>
   <si>
-    <t>(Si/No)</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>1,3,10,45</t>
   </si>
   <si>
+    <t>Descripción del caso de prueba</t>
+  </si>
+  <si>
+    <t>Descripción de como se comportará la parte del sistema que se está probando con las variables que se introducirán(ya sean valores o acciones)</t>
+  </si>
+  <si>
     <t>ID(s) Componentes del Sistema: Los ID(s) del componente del sistema o item de trabajo donde se encuentra este requerimiento funcional.</t>
   </si>
   <si>
     <t>Cadhu/propsectos/views.py</t>
   </si>
   <si>
+    <t>Datos de prueba</t>
+  </si>
+  <si>
+    <t>Variables que se utilizaron para la prueba</t>
+  </si>
+  <si>
     <t>ID Criterio de Aceptación: El ID del criterio de aceptación asignado al requerimiento.</t>
   </si>
   <si>
     <t>1-N</t>
   </si>
   <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Resultado que se espera obtener con la prueba</t>
+  </si>
+  <si>
     <t>Defectos: El ID de los defectos encontrados en este requerimiento.</t>
   </si>
   <si>
-    <t>Version del requerimiento</t>
+    <t>Resultado obtenido</t>
+  </si>
+  <si>
+    <t>Resultado obtenido con la prueba</t>
+  </si>
+  <si>
+    <t>Versión del requerimiento</t>
   </si>
   <si>
     <t>1.0   2.2 etc</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Fecha en la que se realizó la prueba</t>
+  </si>
+  <si>
     <t>ID(s) Módulo de Software: El ID del módulo de software al que pertenece este requisito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripción del Proyecto: </t>
-  </si>
-  <si>
     <t>Requerimiento Funcional</t>
   </si>
   <si>
@@ -162,19 +192,49 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Acceptance Criteria Definition</t>
-  </si>
-  <si>
     <t>Como usuario registrado, me gustaría poder iniciar sesión en el sistema para poder ingresar al sistema.</t>
   </si>
   <si>
+    <t>Planeación</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CADHU/CADHU/urls.py</t>
+  </si>
+  <si>
+    <t>1.1-1.2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Autentificación</t>
+  </si>
+  <si>
+    <t>Prospectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos </t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
     <t>RF_ID</t>
   </si>
   <si>
-    <t>Planeación</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t xml:space="preserve"> Acceptance criteria</t>
+  </si>
+  <si>
+    <t>ID_TC</t>
+  </si>
+  <si>
+    <t>Definición de caso de prueba</t>
   </si>
   <si>
     <t>Requerimiento base</t>
@@ -204,30 +264,6 @@
     <t>Fecha de validación</t>
   </si>
   <si>
-    <t>CADHU/CADHU/urls.py</t>
-  </si>
-  <si>
-    <t>1.1-1.2</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Autentificación</t>
-  </si>
-  <si>
-    <t>Prospectos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventos </t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
     <t>Tiempo estimado en área de desarrollo en HORAS</t>
   </si>
   <si>
@@ -237,7 +273,7 @@
     <t>Descripción del Cambio</t>
   </si>
   <si>
-    <t>Fecha de Solicitud</t>
+    <t>Fecha de Solicitúd</t>
   </si>
   <si>
     <t>Tipo de Cambio</t>
@@ -368,9 +404,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -382,6 +415,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -441,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -451,40 +487,46 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -504,9 +546,6 @@
     <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -516,14 +555,8 @@
     <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -550,6 +583,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -561,7 +603,7 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,7 +671,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="63.29"/>
     <col customWidth="1" min="6" max="6" width="23.29"/>
-    <col customWidth="1" min="7" max="7" width="25.14"/>
+    <col customWidth="1" min="7" max="7" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,119 +680,185 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>1.0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
         <v>1.0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9">
         <v>1.0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
+      <c r="F5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
         <v>1.0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
+      <c r="F6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
+      <c r="B11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13">
       <c r="C13" s="1"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -786,148 +894,148 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3">
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5">
-      <c r="B5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>47</v>
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="24">
+      <c r="B6" s="25">
         <v>1.0</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>49</v>
+      <c r="C6" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="27">
         <v>1.0</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="K6" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="K6" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="J7" s="1"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="34">
+      <c r="L7" s="31"/>
+      <c r="M7" s="33">
         <v>2.0</v>
       </c>
-      <c r="N7" s="30" t="s">
-        <v>67</v>
+      <c r="N7" s="29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="J8" s="1"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="35">
+      <c r="L8" s="31"/>
+      <c r="M8" s="34">
         <v>3.0</v>
       </c>
-      <c r="N8" s="30" t="s">
-        <v>68</v>
+      <c r="N8" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="J9" s="1"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="36">
+      <c r="L9" s="31"/>
+      <c r="M9" s="35">
         <v>4.0</v>
       </c>
-      <c r="N9" s="30" t="s">
-        <v>69</v>
+      <c r="N9" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -3793,59 +3901,59 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3865,21 +3973,37 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.86"/>
     <col customWidth="1" min="2" max="2" width="52.29"/>
-    <col customWidth="1" min="4" max="4" width="66.57"/>
+    <col customWidth="1" min="3" max="3" width="66.57"/>
+    <col customWidth="1" min="5" max="5" width="30.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>48</v>
+      <c r="A1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3908,51 +4032,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="A2" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>61</v>
+      <c r="I2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3985,136 +4109,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
     </row>
     <row r="2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="A3" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
+      <c r="H3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
